--- a/work/花名册.xlsx
+++ b/work/花名册.xlsx
@@ -10002,8 +10002,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
@@ -10080,8 +10080,54 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10089,7 +10135,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10104,31 +10150,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10150,30 +10172,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -10188,30 +10186,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10329,31 +10329,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10377,7 +10359,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10395,115 +10497,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10571,17 +10571,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10596,16 +10605,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10645,26 +10654,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10676,10 +10676,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10688,16 +10688,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10706,118 +10706,118 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
@@ -11465,11 +11465,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:H786"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E354" sqref="E354"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -11508,7 +11508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" hidden="1" spans="1:8">
+    <row r="2" spans="1:8">
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
@@ -11530,7 +11530,7 @@
         <v>42064</v>
       </c>
     </row>
-    <row r="3" hidden="1" spans="1:8">
+    <row r="3" spans="1:8">
       <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
@@ -11552,7 +11552,7 @@
         <v>42438</v>
       </c>
     </row>
-    <row r="4" hidden="1" spans="1:8">
+    <row r="4" spans="1:8">
       <c r="A4" s="11" t="s">
         <v>7</v>
       </c>
@@ -11574,7 +11574,7 @@
         <v>42691</v>
       </c>
     </row>
-    <row r="5" hidden="1" spans="1:8">
+    <row r="5" spans="1:8">
       <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
@@ -11596,7 +11596,7 @@
         <v>42705</v>
       </c>
     </row>
-    <row r="6" hidden="1" spans="1:8">
+    <row r="6" spans="1:8">
       <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
@@ -11618,7 +11618,7 @@
         <v>42241</v>
       </c>
     </row>
-    <row r="7" hidden="1" spans="1:8">
+    <row r="7" spans="1:8">
       <c r="A7" s="11" t="s">
         <v>7</v>
       </c>
@@ -11640,7 +11640,7 @@
         <v>42161</v>
       </c>
     </row>
-    <row r="8" hidden="1" spans="1:8">
+    <row r="8" spans="1:8">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -11662,7 +11662,7 @@
         <v>42389</v>
       </c>
     </row>
-    <row r="9" hidden="1" spans="1:8">
+    <row r="9" spans="1:8">
       <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
@@ -11684,7 +11684,7 @@
         <v>42843</v>
       </c>
     </row>
-    <row r="10" hidden="1" spans="1:8">
+    <row r="10" spans="1:8">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
@@ -11706,7 +11706,7 @@
         <v>42163</v>
       </c>
     </row>
-    <row r="11" hidden="1" spans="1:8">
+    <row r="11" spans="1:8">
       <c r="A11" s="11" t="s">
         <v>7</v>
       </c>
@@ -11728,7 +11728,7 @@
         <v>42443</v>
       </c>
     </row>
-    <row r="12" hidden="1" spans="1:8">
+    <row r="12" spans="1:8">
       <c r="A12" s="11" t="s">
         <v>7</v>
       </c>
@@ -11750,7 +11750,7 @@
         <v>42611</v>
       </c>
     </row>
-    <row r="13" hidden="1" spans="1:8">
+    <row r="13" spans="1:8">
       <c r="A13" s="11" t="s">
         <v>7</v>
       </c>
@@ -11772,7 +11772,7 @@
         <v>42421</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="1:8">
+    <row r="14" spans="1:8">
       <c r="A14" s="11" t="s">
         <v>7</v>
       </c>
@@ -11794,7 +11794,7 @@
         <v>42863</v>
       </c>
     </row>
-    <row r="15" hidden="1" spans="1:8">
+    <row r="15" spans="1:8">
       <c r="A15" s="11" t="s">
         <v>7</v>
       </c>
@@ -11816,7 +11816,7 @@
         <v>42260</v>
       </c>
     </row>
-    <row r="16" hidden="1" spans="1:8">
+    <row r="16" spans="1:8">
       <c r="A16" s="11" t="s">
         <v>7</v>
       </c>
@@ -11838,7 +11838,7 @@
         <v>42358</v>
       </c>
     </row>
-    <row r="17" hidden="1" spans="1:8">
+    <row r="17" spans="1:8">
       <c r="A17" s="11" t="s">
         <v>7</v>
       </c>
@@ -11860,7 +11860,7 @@
         <v>42198</v>
       </c>
     </row>
-    <row r="18" hidden="1" spans="1:8">
+    <row r="18" spans="1:8">
       <c r="A18" s="11" t="s">
         <v>7</v>
       </c>
@@ -11882,7 +11882,7 @@
         <v>42646</v>
       </c>
     </row>
-    <row r="19" hidden="1" spans="1:8">
+    <row r="19" spans="1:8">
       <c r="A19" s="11" t="s">
         <v>7</v>
       </c>
@@ -11904,7 +11904,7 @@
         <v>42891</v>
       </c>
     </row>
-    <row r="20" hidden="1" spans="1:8">
+    <row r="20" spans="1:8">
       <c r="A20" s="11" t="s">
         <v>7</v>
       </c>
@@ -11926,7 +11926,7 @@
         <v>42562</v>
       </c>
     </row>
-    <row r="21" hidden="1" spans="1:8">
+    <row r="21" spans="1:8">
       <c r="A21" s="11" t="s">
         <v>7</v>
       </c>
@@ -11948,7 +11948,7 @@
         <v>42586</v>
       </c>
     </row>
-    <row r="22" hidden="1" spans="1:8">
+    <row r="22" spans="1:8">
       <c r="A22" s="11" t="s">
         <v>7</v>
       </c>
@@ -11970,7 +11970,7 @@
         <v>42773</v>
       </c>
     </row>
-    <row r="23" hidden="1" spans="1:8">
+    <row r="23" spans="1:8">
       <c r="A23" s="11" t="s">
         <v>7</v>
       </c>
@@ -11992,7 +11992,7 @@
         <v>42705</v>
       </c>
     </row>
-    <row r="24" hidden="1" spans="1:8">
+    <row r="24" spans="1:8">
       <c r="A24" s="11" t="s">
         <v>7</v>
       </c>
@@ -12014,7 +12014,7 @@
         <v>42642</v>
       </c>
     </row>
-    <row r="25" hidden="1" spans="1:8">
+    <row r="25" spans="1:8">
       <c r="A25" s="11" t="s">
         <v>7</v>
       </c>
@@ -12036,7 +12036,7 @@
         <v>42831</v>
       </c>
     </row>
-    <row r="26" hidden="1" spans="1:8">
+    <row r="26" spans="1:8">
       <c r="A26" s="11" t="s">
         <v>7</v>
       </c>
@@ -12058,7 +12058,7 @@
         <v>42553</v>
       </c>
     </row>
-    <row r="27" hidden="1" spans="1:8">
+    <row r="27" spans="1:8">
       <c r="A27" s="11" t="s">
         <v>7</v>
       </c>
@@ -12080,7 +12080,7 @@
         <v>42569</v>
       </c>
     </row>
-    <row r="28" hidden="1" spans="1:8">
+    <row r="28" spans="1:8">
       <c r="A28" s="11" t="s">
         <v>7</v>
       </c>
@@ -12102,7 +12102,7 @@
         <v>42580</v>
       </c>
     </row>
-    <row r="29" hidden="1" spans="1:8">
+    <row r="29" spans="1:8">
       <c r="A29" s="11" t="s">
         <v>7</v>
       </c>
@@ -12124,7 +12124,7 @@
         <v>42699</v>
       </c>
     </row>
-    <row r="30" hidden="1" spans="1:8">
+    <row r="30" spans="1:8">
       <c r="A30" s="11" t="s">
         <v>7</v>
       </c>
@@ -12146,7 +12146,7 @@
         <v>42525</v>
       </c>
     </row>
-    <row r="31" hidden="1" spans="1:8">
+    <row r="31" spans="1:8">
       <c r="A31" s="11" t="s">
         <v>7</v>
       </c>
@@ -12168,7 +12168,7 @@
         <v>42563</v>
       </c>
     </row>
-    <row r="32" hidden="1" spans="1:8">
+    <row r="32" spans="1:8">
       <c r="A32" s="11" t="s">
         <v>7</v>
       </c>
@@ -12190,7 +12190,7 @@
         <v>42704</v>
       </c>
     </row>
-    <row r="33" hidden="1" spans="1:8">
+    <row r="33" spans="1:8">
       <c r="A33" s="11" t="s">
         <v>7</v>
       </c>
@@ -12212,7 +12212,7 @@
         <v>42792</v>
       </c>
     </row>
-    <row r="34" hidden="1" spans="1:8">
+    <row r="34" spans="1:8">
       <c r="A34" s="11" t="s">
         <v>7</v>
       </c>
@@ -12234,7 +12234,7 @@
         <v>42693</v>
       </c>
     </row>
-    <row r="35" hidden="1" spans="1:8">
+    <row r="35" spans="1:8">
       <c r="A35" s="11" t="s">
         <v>7</v>
       </c>
@@ -12256,7 +12256,7 @@
         <v>42563</v>
       </c>
     </row>
-    <row r="36" hidden="1" spans="1:8">
+    <row r="36" spans="1:8">
       <c r="A36" s="11" t="s">
         <v>7</v>
       </c>
@@ -12278,7 +12278,7 @@
         <v>42810</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:8">
+    <row r="37" spans="1:8">
       <c r="A37" s="11" t="s">
         <v>7</v>
       </c>
@@ -12300,7 +12300,7 @@
         <v>42874</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="1:8">
+    <row r="38" spans="1:8">
       <c r="A38" s="11" t="s">
         <v>7</v>
       </c>
@@ -12322,7 +12322,7 @@
         <v>42808</v>
       </c>
     </row>
-    <row r="39" hidden="1" spans="1:8">
+    <row r="39" spans="1:8">
       <c r="A39" s="11" t="s">
         <v>7</v>
       </c>
@@ -12344,7 +12344,7 @@
         <v>42506</v>
       </c>
     </row>
-    <row r="40" hidden="1" spans="1:8">
+    <row r="40" spans="1:8">
       <c r="A40" s="11" t="s">
         <v>7</v>
       </c>
@@ -12366,7 +12366,7 @@
         <v>42339</v>
       </c>
     </row>
-    <row r="41" hidden="1" spans="1:8">
+    <row r="41" spans="1:8">
       <c r="A41" s="11" t="s">
         <v>7</v>
       </c>
@@ -12388,7 +12388,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="42" hidden="1" spans="1:8">
+    <row r="42" spans="1:8">
       <c r="A42" s="11" t="s">
         <v>7</v>
       </c>
@@ -12410,7 +12410,7 @@
         <v>42903</v>
       </c>
     </row>
-    <row r="43" hidden="1" spans="1:8">
+    <row r="43" spans="1:8">
       <c r="A43" s="11" t="s">
         <v>7</v>
       </c>
@@ -12432,7 +12432,7 @@
         <v>42824</v>
       </c>
     </row>
-    <row r="44" hidden="1" spans="1:8">
+    <row r="44" spans="1:8">
       <c r="A44" s="11" t="s">
         <v>7</v>
       </c>
@@ -12454,7 +12454,7 @@
         <v>42772</v>
       </c>
     </row>
-    <row r="45" hidden="1" spans="1:8">
+    <row r="45" spans="1:8">
       <c r="A45" s="11" t="s">
         <v>7</v>
       </c>
@@ -12476,7 +12476,7 @@
         <v>42794</v>
       </c>
     </row>
-    <row r="46" hidden="1" spans="1:8">
+    <row r="46" spans="1:8">
       <c r="A46" s="11" t="s">
         <v>7</v>
       </c>
@@ -12498,7 +12498,7 @@
         <v>42795</v>
       </c>
     </row>
-    <row r="47" hidden="1" spans="1:8">
+    <row r="47" spans="1:8">
       <c r="A47" s="11" t="s">
         <v>7</v>
       </c>
@@ -12520,7 +12520,7 @@
         <v>42509</v>
       </c>
     </row>
-    <row r="48" hidden="1" spans="1:8">
+    <row r="48" spans="1:8">
       <c r="A48" s="11" t="s">
         <v>7</v>
       </c>
@@ -12542,7 +12542,7 @@
         <v>42870</v>
       </c>
     </row>
-    <row r="49" hidden="1" spans="1:8">
+    <row r="49" spans="1:8">
       <c r="A49" s="11" t="s">
         <v>7</v>
       </c>
@@ -12564,7 +12564,7 @@
         <v>42463</v>
       </c>
     </row>
-    <row r="50" hidden="1" spans="1:8">
+    <row r="50" spans="1:8">
       <c r="A50" s="11" t="s">
         <v>7</v>
       </c>
@@ -12586,7 +12586,7 @@
         <v>42438</v>
       </c>
     </row>
-    <row r="51" hidden="1" spans="1:8">
+    <row r="51" spans="1:8">
       <c r="A51" s="25" t="s">
         <v>101</v>
       </c>
@@ -12611,7 +12611,7 @@
         <v>42170</v>
       </c>
     </row>
-    <row r="52" hidden="1" spans="1:8">
+    <row r="52" spans="1:8">
       <c r="A52" s="25" t="s">
         <v>101</v>
       </c>
@@ -12636,7 +12636,7 @@
         <v>42364</v>
       </c>
     </row>
-    <row r="53" hidden="1" spans="1:8">
+    <row r="53" spans="1:8">
       <c r="A53" s="25" t="s">
         <v>101</v>
       </c>
@@ -12660,7 +12660,7 @@
         <v>42576</v>
       </c>
     </row>
-    <row r="54" hidden="1" spans="1:8">
+    <row r="54" spans="1:8">
       <c r="A54" s="25" t="s">
         <v>101</v>
       </c>
@@ -12684,7 +12684,7 @@
         <v>42648</v>
       </c>
     </row>
-    <row r="55" hidden="1" spans="1:8">
+    <row r="55" spans="1:8">
       <c r="A55" s="25" t="s">
         <v>101</v>
       </c>
@@ -12708,7 +12708,7 @@
         <v>42781</v>
       </c>
     </row>
-    <row r="56" hidden="1" spans="1:8">
+    <row r="56" spans="1:8">
       <c r="A56" s="25" t="s">
         <v>101</v>
       </c>
@@ -12732,7 +12732,7 @@
         <v>42485</v>
       </c>
     </row>
-    <row r="57" hidden="1" spans="1:8">
+    <row r="57" spans="1:8">
       <c r="A57" s="25" t="s">
         <v>101</v>
       </c>
@@ -12756,7 +12756,7 @@
         <v>42787</v>
       </c>
     </row>
-    <row r="58" hidden="1" spans="1:8">
+    <row r="58" spans="1:8">
       <c r="A58" s="25" t="s">
         <v>101</v>
       </c>
@@ -12780,7 +12780,7 @@
         <v>42843</v>
       </c>
     </row>
-    <row r="59" hidden="1" spans="1:8">
+    <row r="59" spans="1:8">
       <c r="A59" s="25" t="s">
         <v>101</v>
       </c>
@@ -12804,7 +12804,7 @@
         <v>42421</v>
       </c>
     </row>
-    <row r="60" hidden="1" spans="1:8">
+    <row r="60" spans="1:8">
       <c r="A60" s="25" t="s">
         <v>101</v>
       </c>
@@ -12828,7 +12828,7 @@
         <v>42827</v>
       </c>
     </row>
-    <row r="61" hidden="1" spans="1:8">
+    <row r="61" spans="1:8">
       <c r="A61" s="25" t="s">
         <v>101</v>
       </c>
@@ -12852,7 +12852,7 @@
         <v>42499</v>
       </c>
     </row>
-    <row r="62" hidden="1" spans="1:8">
+    <row r="62" spans="1:8">
       <c r="A62" s="25" t="s">
         <v>101</v>
       </c>
@@ -12876,7 +12876,7 @@
         <v>42797</v>
       </c>
     </row>
-    <row r="63" hidden="1" spans="1:8">
+    <row r="63" spans="1:8">
       <c r="A63" s="25" t="s">
         <v>101</v>
       </c>
@@ -12900,7 +12900,7 @@
         <v>42802</v>
       </c>
     </row>
-    <row r="64" hidden="1" spans="1:8">
+    <row r="64" spans="1:8">
       <c r="A64" s="25" t="s">
         <v>101</v>
       </c>
@@ -12924,7 +12924,7 @@
         <v>42851</v>
       </c>
     </row>
-    <row r="65" hidden="1" spans="1:8">
+    <row r="65" spans="1:8">
       <c r="A65" s="25" t="s">
         <v>101</v>
       </c>
@@ -12948,7 +12948,7 @@
         <v>42851</v>
       </c>
     </row>
-    <row r="66" hidden="1" spans="1:8">
+    <row r="66" spans="1:8">
       <c r="A66" s="25" t="s">
         <v>101</v>
       </c>
@@ -12972,7 +12972,7 @@
         <v>42898</v>
       </c>
     </row>
-    <row r="67" hidden="1" spans="1:8">
+    <row r="67" spans="1:8">
       <c r="A67" s="25" t="s">
         <v>101</v>
       </c>
@@ -12996,7 +12996,7 @@
         <v>42179</v>
       </c>
     </row>
-    <row r="68" hidden="1" spans="1:8">
+    <row r="68" spans="1:8">
       <c r="A68" s="25" t="s">
         <v>101</v>
       </c>
@@ -13020,7 +13020,7 @@
         <v>42683</v>
       </c>
     </row>
-    <row r="69" hidden="1" spans="1:8">
+    <row r="69" spans="1:8">
       <c r="A69" s="25" t="s">
         <v>101</v>
       </c>
@@ -13044,7 +13044,7 @@
         <v>42618</v>
       </c>
     </row>
-    <row r="70" hidden="1" spans="1:8">
+    <row r="70" spans="1:8">
       <c r="A70" s="25" t="s">
         <v>101</v>
       </c>
@@ -13068,7 +13068,7 @@
         <v>42826</v>
       </c>
     </row>
-    <row r="71" hidden="1" spans="1:8">
+    <row r="71" spans="1:8">
       <c r="A71" s="25" t="s">
         <v>101</v>
       </c>
@@ -13093,7 +13093,7 @@
         <v>42437</v>
       </c>
     </row>
-    <row r="72" hidden="1" spans="1:8">
+    <row r="72" spans="1:8">
       <c r="A72" s="25" t="s">
         <v>101</v>
       </c>
@@ -13115,7 +13115,7 @@
         <v>42299</v>
       </c>
     </row>
-    <row r="73" hidden="1" spans="1:8">
+    <row r="73" spans="1:8">
       <c r="A73" s="25" t="s">
         <v>101</v>
       </c>
@@ -13139,7 +13139,7 @@
         <v>42430</v>
       </c>
     </row>
-    <row r="74" hidden="1" spans="1:8">
+    <row r="74" spans="1:8">
       <c r="A74" s="25" t="s">
         <v>101</v>
       </c>
@@ -13163,7 +13163,7 @@
         <v>42447</v>
       </c>
     </row>
-    <row r="75" hidden="1" spans="1:8">
+    <row r="75" spans="1:8">
       <c r="A75" s="25" t="s">
         <v>101</v>
       </c>
@@ -13187,7 +13187,7 @@
         <v>42604</v>
       </c>
     </row>
-    <row r="76" hidden="1" spans="1:8">
+    <row r="76" spans="1:8">
       <c r="A76" s="25" t="s">
         <v>101</v>
       </c>
@@ -13211,7 +13211,7 @@
         <v>42777</v>
       </c>
     </row>
-    <row r="77" hidden="1" spans="1:8">
+    <row r="77" spans="1:8">
       <c r="A77" s="25" t="s">
         <v>101</v>
       </c>
@@ -13235,7 +13235,7 @@
         <v>42778</v>
       </c>
     </row>
-    <row r="78" hidden="1" spans="1:8">
+    <row r="78" spans="1:8">
       <c r="A78" s="25" t="s">
         <v>101</v>
       </c>
@@ -13286,7 +13286,7 @@
         <v>42569</v>
       </c>
     </row>
-    <row r="80" hidden="1" spans="1:8">
+    <row r="80" spans="1:8">
       <c r="A80" s="25" t="s">
         <v>101</v>
       </c>
@@ -13310,7 +13310,7 @@
         <v>42294</v>
       </c>
     </row>
-    <row r="81" hidden="1" spans="1:8">
+    <row r="81" spans="1:8">
       <c r="A81" s="25" t="s">
         <v>101</v>
       </c>
@@ -13334,7 +13334,7 @@
         <v>42786</v>
       </c>
     </row>
-    <row r="82" hidden="1" spans="1:8">
+    <row r="82" spans="1:8">
       <c r="A82" s="25" t="s">
         <v>101</v>
       </c>
@@ -13358,7 +13358,7 @@
         <v>42816</v>
       </c>
     </row>
-    <row r="83" hidden="1" spans="1:8">
+    <row r="83" spans="1:8">
       <c r="A83" s="25" t="s">
         <v>101</v>
       </c>
@@ -13382,7 +13382,7 @@
         <v>42824</v>
       </c>
     </row>
-    <row r="84" hidden="1" spans="1:8">
+    <row r="84" spans="1:8">
       <c r="A84" s="25" t="s">
         <v>101</v>
       </c>
@@ -13406,7 +13406,7 @@
         <v>42852</v>
       </c>
     </row>
-    <row r="85" hidden="1" spans="1:8">
+    <row r="85" spans="1:8">
       <c r="A85" s="25" t="s">
         <v>101</v>
       </c>
@@ -13430,7 +13430,7 @@
         <v>42852</v>
       </c>
     </row>
-    <row r="86" hidden="1" spans="1:8">
+    <row r="86" spans="1:8">
       <c r="A86" s="25" t="s">
         <v>101</v>
       </c>
@@ -13454,7 +13454,7 @@
         <v>42378</v>
       </c>
     </row>
-    <row r="87" hidden="1" spans="1:8">
+    <row r="87" spans="1:8">
       <c r="A87" s="25" t="s">
         <v>101</v>
       </c>
@@ -13478,7 +13478,7 @@
         <v>42709</v>
       </c>
     </row>
-    <row r="88" hidden="1" spans="1:8">
+    <row r="88" spans="1:8">
       <c r="A88" s="25" t="s">
         <v>101</v>
       </c>
@@ -13502,7 +13502,7 @@
         <v>42681</v>
       </c>
     </row>
-    <row r="89" hidden="1" spans="1:8">
+    <row r="89" spans="1:8">
       <c r="A89" s="25" t="s">
         <v>101</v>
       </c>
@@ -13526,7 +13526,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="90" hidden="1" spans="1:8">
+    <row r="90" spans="1:8">
       <c r="A90" s="25" t="s">
         <v>101</v>
       </c>
@@ -13550,7 +13550,7 @@
         <v>42867</v>
       </c>
     </row>
-    <row r="91" hidden="1" spans="1:8">
+    <row r="91" spans="1:8">
       <c r="A91" s="25" t="s">
         <v>101</v>
       </c>
@@ -13574,7 +13574,7 @@
         <v>42782</v>
       </c>
     </row>
-    <row r="92" hidden="1" spans="1:8">
+    <row r="92" spans="1:8">
       <c r="A92" s="25" t="s">
         <v>101</v>
       </c>
@@ -13598,7 +13598,7 @@
         <v>42856</v>
       </c>
     </row>
-    <row r="93" hidden="1" spans="1:8">
+    <row r="93" spans="1:8">
       <c r="A93" s="25" t="s">
         <v>101</v>
       </c>
@@ -13622,7 +13622,7 @@
         <v>42824</v>
       </c>
     </row>
-    <row r="94" hidden="1" spans="1:8">
+    <row r="94" spans="1:8">
       <c r="A94" s="25" t="s">
         <v>101</v>
       </c>
@@ -13646,7 +13646,7 @@
         <v>42839</v>
       </c>
     </row>
-    <row r="95" hidden="1" spans="1:8">
+    <row r="95" spans="1:8">
       <c r="A95" s="25" t="s">
         <v>101</v>
       </c>
@@ -13670,7 +13670,7 @@
         <v>42841</v>
       </c>
     </row>
-    <row r="96" hidden="1" spans="1:8">
+    <row r="96" spans="1:8">
       <c r="A96" s="25" t="s">
         <v>101</v>
       </c>
@@ -13719,7 +13719,7 @@
         <v>42471</v>
       </c>
     </row>
-    <row r="98" hidden="1" spans="1:8">
+    <row r="98" spans="1:8">
       <c r="A98" s="25" t="s">
         <v>101</v>
       </c>
@@ -13743,7 +13743,7 @@
         <v>42683</v>
       </c>
     </row>
-    <row r="99" hidden="1" spans="1:8">
+    <row r="99" spans="1:8">
       <c r="A99" s="25" t="s">
         <v>101</v>
       </c>
@@ -13767,7 +13767,7 @@
         <v>42650</v>
       </c>
     </row>
-    <row r="100" hidden="1" spans="1:8">
+    <row r="100" spans="1:8">
       <c r="A100" s="25" t="s">
         <v>101</v>
       </c>
@@ -13791,7 +13791,7 @@
         <v>42650</v>
       </c>
     </row>
-    <row r="101" hidden="1" spans="1:8">
+    <row r="101" spans="1:8">
       <c r="A101" s="25" t="s">
         <v>101</v>
       </c>
@@ -13815,7 +13815,7 @@
         <v>42816</v>
       </c>
     </row>
-    <row r="102" hidden="1" spans="1:8">
+    <row r="102" spans="1:8">
       <c r="A102" s="25" t="s">
         <v>101</v>
       </c>
@@ -13839,7 +13839,7 @@
         <v>42226</v>
       </c>
     </row>
-    <row r="103" hidden="1" spans="1:8">
+    <row r="103" spans="1:8">
       <c r="A103" s="25" t="s">
         <v>101</v>
       </c>
@@ -13863,7 +13863,7 @@
         <v>42800</v>
       </c>
     </row>
-    <row r="104" hidden="1" spans="1:8">
+    <row r="104" spans="1:8">
       <c r="A104" s="25" t="s">
         <v>101</v>
       </c>
@@ -13887,7 +13887,7 @@
         <v>42797</v>
       </c>
     </row>
-    <row r="105" hidden="1" spans="1:8">
+    <row r="105" spans="1:8">
       <c r="A105" s="25" t="s">
         <v>101</v>
       </c>
@@ -13911,7 +13911,7 @@
         <v>42604</v>
       </c>
     </row>
-    <row r="106" hidden="1" spans="1:8">
+    <row r="106" spans="1:8">
       <c r="A106" s="25" t="s">
         <v>101</v>
       </c>
@@ -13935,7 +13935,7 @@
         <v>42422</v>
       </c>
     </row>
-    <row r="107" hidden="1" spans="1:8">
+    <row r="107" spans="1:8">
       <c r="A107" s="25" t="s">
         <v>101</v>
       </c>
@@ -13959,7 +13959,7 @@
         <v>42580</v>
       </c>
     </row>
-    <row r="108" hidden="1" spans="1:8">
+    <row r="108" spans="1:8">
       <c r="A108" s="25" t="s">
         <v>101</v>
       </c>
@@ -13983,7 +13983,7 @@
         <v>42494</v>
       </c>
     </row>
-    <row r="109" hidden="1" spans="1:8">
+    <row r="109" spans="1:8">
       <c r="A109" s="25" t="s">
         <v>101</v>
       </c>
@@ -14007,7 +14007,7 @@
         <v>42788</v>
       </c>
     </row>
-    <row r="110" hidden="1" spans="1:8">
+    <row r="110" spans="1:8">
       <c r="A110" s="25" t="s">
         <v>101</v>
       </c>
@@ -14031,7 +14031,7 @@
         <v>42620</v>
       </c>
     </row>
-    <row r="111" hidden="1" spans="1:8">
+    <row r="111" spans="1:8">
       <c r="A111" s="25" t="s">
         <v>101</v>
       </c>
@@ -14055,7 +14055,7 @@
         <v>42676</v>
       </c>
     </row>
-    <row r="112" hidden="1" spans="1:8">
+    <row r="112" spans="1:8">
       <c r="A112" s="25" t="s">
         <v>101</v>
       </c>
@@ -14079,7 +14079,7 @@
         <v>42435</v>
       </c>
     </row>
-    <row r="113" hidden="1" spans="1:8">
+    <row r="113" spans="1:8">
       <c r="A113" s="25" t="s">
         <v>101</v>
       </c>
@@ -14103,7 +14103,7 @@
         <v>42580</v>
       </c>
     </row>
-    <row r="114" hidden="1" spans="1:8">
+    <row r="114" spans="1:8">
       <c r="A114" s="25" t="s">
         <v>101</v>
       </c>
@@ -14127,7 +14127,7 @@
         <v>42789</v>
       </c>
     </row>
-    <row r="115" hidden="1" spans="1:8">
+    <row r="115" spans="1:8">
       <c r="A115" s="25" t="s">
         <v>101</v>
       </c>
@@ -14151,7 +14151,7 @@
         <v>42787</v>
       </c>
     </row>
-    <row r="116" hidden="1" spans="1:8">
+    <row r="116" spans="1:8">
       <c r="A116" s="25" t="s">
         <v>101</v>
       </c>
@@ -14175,7 +14175,7 @@
         <v>42744</v>
       </c>
     </row>
-    <row r="117" hidden="1" spans="1:8">
+    <row r="117" spans="1:8">
       <c r="A117" s="25" t="s">
         <v>101</v>
       </c>
@@ -14224,7 +14224,7 @@
         <v>42190</v>
       </c>
     </row>
-    <row r="119" hidden="1" spans="1:8">
+    <row r="119" spans="1:8">
       <c r="A119" s="25" t="s">
         <v>101</v>
       </c>
@@ -14248,7 +14248,7 @@
         <v>42292</v>
       </c>
     </row>
-    <row r="120" hidden="1" spans="1:8">
+    <row r="120" spans="1:8">
       <c r="A120" s="25" t="s">
         <v>101</v>
       </c>
@@ -14272,7 +14272,7 @@
         <v>42781</v>
       </c>
     </row>
-    <row r="121" hidden="1" spans="1:8">
+    <row r="121" spans="1:8">
       <c r="A121" s="25" t="s">
         <v>101</v>
       </c>
@@ -14296,7 +14296,7 @@
         <v>42421</v>
       </c>
     </row>
-    <row r="122" hidden="1" spans="1:8">
+    <row r="122" spans="1:8">
       <c r="A122" s="25" t="s">
         <v>101</v>
       </c>
@@ -14320,7 +14320,7 @@
         <v>42613</v>
       </c>
     </row>
-    <row r="123" hidden="1" spans="1:8">
+    <row r="123" spans="1:8">
       <c r="A123" s="25" t="s">
         <v>101</v>
       </c>
@@ -14344,7 +14344,7 @@
         <v>42795</v>
       </c>
     </row>
-    <row r="124" hidden="1" spans="1:8">
+    <row r="124" spans="1:8">
       <c r="A124" s="25" t="s">
         <v>101</v>
       </c>
@@ -14368,7 +14368,7 @@
         <v>42802</v>
       </c>
     </row>
-    <row r="125" hidden="1" spans="1:8">
+    <row r="125" spans="1:8">
       <c r="A125" s="25" t="s">
         <v>101</v>
       </c>
@@ -14392,7 +14392,7 @@
         <v>42843</v>
       </c>
     </row>
-    <row r="126" hidden="1" spans="1:8">
+    <row r="126" spans="1:8">
       <c r="A126" s="25" t="s">
         <v>101</v>
       </c>
@@ -14416,7 +14416,7 @@
         <v>42853</v>
       </c>
     </row>
-    <row r="127" hidden="1" spans="1:8">
+    <row r="127" spans="1:8">
       <c r="A127" s="25" t="s">
         <v>101</v>
       </c>
@@ -14440,7 +14440,7 @@
         <v>42895</v>
       </c>
     </row>
-    <row r="128" hidden="1" spans="1:8">
+    <row r="128" spans="1:8">
       <c r="A128" s="25" t="s">
         <v>101</v>
       </c>
@@ -14464,7 +14464,7 @@
         <v>42237</v>
       </c>
     </row>
-    <row r="129" hidden="1" spans="1:8">
+    <row r="129" spans="1:8">
       <c r="A129" s="25" t="s">
         <v>101</v>
       </c>
@@ -14488,7 +14488,7 @@
         <v>42625</v>
       </c>
     </row>
-    <row r="130" hidden="1" spans="1:8">
+    <row r="130" spans="1:8">
       <c r="A130" s="25" t="s">
         <v>101</v>
       </c>
@@ -14512,7 +14512,7 @@
         <v>42594</v>
       </c>
     </row>
-    <row r="131" hidden="1" spans="1:8">
+    <row r="131" spans="1:8">
       <c r="A131" s="25" t="s">
         <v>101</v>
       </c>
@@ -14536,7 +14536,7 @@
         <v>42827</v>
       </c>
     </row>
-    <row r="132" hidden="1" spans="1:8">
+    <row r="132" spans="1:8">
       <c r="A132" s="25" t="s">
         <v>101</v>
       </c>
@@ -14560,7 +14560,7 @@
         <v>42548</v>
       </c>
     </row>
-    <row r="133" hidden="1" spans="1:8">
+    <row r="133" spans="1:8">
       <c r="A133" s="25" t="s">
         <v>101</v>
       </c>
@@ -14584,7 +14584,7 @@
         <v>42902</v>
       </c>
     </row>
-    <row r="134" hidden="1" spans="1:8">
+    <row r="134" spans="1:8">
       <c r="A134" s="25" t="s">
         <v>101</v>
       </c>
@@ -14608,7 +14608,7 @@
         <v>42597</v>
       </c>
     </row>
-    <row r="135" hidden="1" spans="1:8">
+    <row r="135" spans="1:8">
       <c r="A135" s="25" t="s">
         <v>101</v>
       </c>
@@ -14632,7 +14632,7 @@
         <v>42706</v>
       </c>
     </row>
-    <row r="136" hidden="1" spans="1:8">
+    <row r="136" spans="1:8">
       <c r="A136" s="25" t="s">
         <v>101</v>
       </c>
@@ -14656,7 +14656,7 @@
         <v>42692</v>
       </c>
     </row>
-    <row r="137" hidden="1" spans="1:8">
+    <row r="137" spans="1:8">
       <c r="A137" s="25" t="s">
         <v>101</v>
       </c>
@@ -14680,7 +14680,7 @@
         <v>42823</v>
       </c>
     </row>
-    <row r="138" hidden="1" spans="1:8">
+    <row r="138" spans="1:8">
       <c r="A138" s="25" t="s">
         <v>101</v>
       </c>
@@ -14704,7 +14704,7 @@
         <v>42855</v>
       </c>
     </row>
-    <row r="139" hidden="1" spans="1:8">
+    <row r="139" spans="1:8">
       <c r="A139" s="25" t="s">
         <v>101</v>
       </c>
@@ -14728,7 +14728,7 @@
         <v>42868</v>
       </c>
     </row>
-    <row r="140" hidden="1" spans="1:8">
+    <row r="140" spans="1:8">
       <c r="A140" s="25" t="s">
         <v>101</v>
       </c>
@@ -14779,7 +14779,7 @@
         <v>42426</v>
       </c>
     </row>
-    <row r="142" hidden="1" spans="1:8">
+    <row r="142" spans="1:8">
       <c r="A142" s="25" t="s">
         <v>101</v>
       </c>
@@ -14803,7 +14803,7 @@
         <v>42781</v>
       </c>
     </row>
-    <row r="143" hidden="1" spans="1:8">
+    <row r="143" spans="1:8">
       <c r="A143" s="25" t="s">
         <v>101</v>
       </c>
@@ -14827,7 +14827,7 @@
         <v>42794</v>
       </c>
     </row>
-    <row r="144" hidden="1" spans="1:8">
+    <row r="144" spans="1:8">
       <c r="A144" s="25" t="s">
         <v>101</v>
       </c>
@@ -14851,7 +14851,7 @@
         <v>42826</v>
       </c>
     </row>
-    <row r="145" hidden="1" spans="1:8">
+    <row r="145" spans="1:8">
       <c r="A145" s="25" t="s">
         <v>101</v>
       </c>
@@ -14875,7 +14875,7 @@
         <v>42303</v>
       </c>
     </row>
-    <row r="146" hidden="1" spans="1:8">
+    <row r="146" spans="1:8">
       <c r="A146" s="25" t="s">
         <v>101</v>
       </c>
@@ -14899,7 +14899,7 @@
         <v>42821</v>
       </c>
     </row>
-    <row r="147" hidden="1" spans="1:8">
+    <row r="147" spans="1:8">
       <c r="A147" s="25" t="s">
         <v>101</v>
       </c>
@@ -14923,7 +14923,7 @@
         <v>42837</v>
       </c>
     </row>
-    <row r="148" hidden="1" spans="1:8">
+    <row r="148" spans="1:8">
       <c r="A148" s="25" t="s">
         <v>101</v>
       </c>
@@ -14947,7 +14947,7 @@
         <v>42905</v>
       </c>
     </row>
-    <row r="149" hidden="1" spans="1:8">
+    <row r="149" spans="1:8">
       <c r="A149" s="25" t="s">
         <v>101</v>
       </c>
@@ -14971,7 +14971,7 @@
         <v>42905</v>
       </c>
     </row>
-    <row r="150" hidden="1" spans="1:8">
+    <row r="150" spans="1:8">
       <c r="A150" s="25" t="s">
         <v>101</v>
       </c>
@@ -14995,7 +14995,7 @@
         <v>42622</v>
       </c>
     </row>
-    <row r="151" hidden="1" spans="1:8">
+    <row r="151" spans="1:8">
       <c r="A151" s="25" t="s">
         <v>101</v>
       </c>
@@ -15019,7 +15019,7 @@
         <v>42832</v>
       </c>
     </row>
-    <row r="152" hidden="1" spans="1:8">
+    <row r="152" spans="1:8">
       <c r="A152" s="25" t="s">
         <v>101</v>
       </c>
@@ -15043,7 +15043,7 @@
         <v>42853</v>
       </c>
     </row>
-    <row r="153" hidden="1" spans="1:8">
+    <row r="153" spans="1:8">
       <c r="A153" s="25" t="s">
         <v>101</v>
       </c>
@@ -15067,7 +15067,7 @@
         <v>42632</v>
       </c>
     </row>
-    <row r="154" hidden="1" spans="1:8">
+    <row r="154" spans="1:8">
       <c r="A154" s="25" t="s">
         <v>101</v>
       </c>
@@ -15091,7 +15091,7 @@
         <v>42863</v>
       </c>
     </row>
-    <row r="155" hidden="1" spans="1:8">
+    <row r="155" spans="1:8">
       <c r="A155" s="25" t="s">
         <v>101</v>
       </c>
@@ -15115,7 +15115,7 @@
         <v>42893</v>
       </c>
     </row>
-    <row r="156" hidden="1" spans="1:8">
+    <row r="156" spans="1:8">
       <c r="A156" s="46" t="s">
         <v>221</v>
       </c>
@@ -15140,7 +15140,7 @@
         <v>42297</v>
       </c>
     </row>
-    <row r="157" hidden="1" spans="1:8">
+    <row r="157" spans="1:8">
       <c r="A157" s="46" t="s">
         <v>221</v>
       </c>
@@ -15162,7 +15162,7 @@
         <v>42610</v>
       </c>
     </row>
-    <row r="158" hidden="1" spans="1:8">
+    <row r="158" spans="1:8">
       <c r="A158" s="46" t="s">
         <v>221</v>
       </c>
@@ -15186,7 +15186,7 @@
         <v>42424</v>
       </c>
     </row>
-    <row r="159" hidden="1" spans="1:8">
+    <row r="159" spans="1:8">
       <c r="A159" s="46" t="s">
         <v>221</v>
       </c>
@@ -15210,7 +15210,7 @@
         <v>42620</v>
       </c>
     </row>
-    <row r="160" hidden="1" spans="1:8">
+    <row r="160" spans="1:8">
       <c r="A160" s="46" t="s">
         <v>221</v>
       </c>
@@ -15234,7 +15234,7 @@
         <v>42837</v>
       </c>
     </row>
-    <row r="161" hidden="1" spans="1:8">
+    <row r="161" spans="1:8">
       <c r="A161" s="46" t="s">
         <v>221</v>
       </c>
@@ -15258,7 +15258,7 @@
         <v>42854</v>
       </c>
     </row>
-    <row r="162" hidden="1" spans="1:8">
+    <row r="162" spans="1:8">
       <c r="A162" s="46" t="s">
         <v>221</v>
       </c>
@@ -15282,7 +15282,7 @@
         <v>42429</v>
       </c>
     </row>
-    <row r="163" hidden="1" spans="1:8">
+    <row r="163" spans="1:8">
       <c r="A163" s="46" t="s">
         <v>221</v>
       </c>
@@ -15306,7 +15306,7 @@
         <v>42783</v>
       </c>
     </row>
-    <row r="164" hidden="1" spans="1:8">
+    <row r="164" spans="1:8">
       <c r="A164" s="46" t="s">
         <v>221</v>
       </c>
@@ -15330,7 +15330,7 @@
         <v>42783</v>
       </c>
     </row>
-    <row r="165" hidden="1" spans="1:8">
+    <row r="165" spans="1:8">
       <c r="A165" s="46" t="s">
         <v>221</v>
       </c>
@@ -15354,7 +15354,7 @@
         <v>42813</v>
       </c>
     </row>
-    <row r="166" hidden="1" spans="1:8">
+    <row r="166" spans="1:8">
       <c r="A166" s="46" t="s">
         <v>221</v>
       </c>
@@ -15405,7 +15405,7 @@
         <v>42309</v>
       </c>
     </row>
-    <row r="168" hidden="1" spans="1:8">
+    <row r="168" spans="1:8">
       <c r="A168" s="46" t="s">
         <v>221</v>
       </c>
@@ -15429,7 +15429,7 @@
         <v>42425</v>
       </c>
     </row>
-    <row r="169" hidden="1" spans="1:8">
+    <row r="169" spans="1:8">
       <c r="A169" s="46" t="s">
         <v>221</v>
       </c>
@@ -15453,7 +15453,7 @@
         <v>42604</v>
       </c>
     </row>
-    <row r="170" hidden="1" spans="1:8">
+    <row r="170" spans="1:8">
       <c r="A170" s="46" t="s">
         <v>221</v>
       </c>
@@ -15477,7 +15477,7 @@
         <v>42653</v>
       </c>
     </row>
-    <row r="171" hidden="1" spans="1:8">
+    <row r="171" spans="1:8">
       <c r="A171" s="46" t="s">
         <v>221</v>
       </c>
@@ -15528,7 +15528,7 @@
         <v>42334</v>
       </c>
     </row>
-    <row r="173" hidden="1" spans="1:8">
+    <row r="173" spans="1:8">
       <c r="A173" s="46" t="s">
         <v>221</v>
       </c>
@@ -15552,7 +15552,7 @@
         <v>42438</v>
       </c>
     </row>
-    <row r="174" hidden="1" spans="1:8">
+    <row r="174" spans="1:8">
       <c r="A174" s="46" t="s">
         <v>221</v>
       </c>
@@ -15576,7 +15576,7 @@
         <v>42789</v>
       </c>
     </row>
-    <row r="175" hidden="1" spans="1:8">
+    <row r="175" spans="1:8">
       <c r="A175" s="46" t="s">
         <v>221</v>
       </c>
@@ -15600,7 +15600,7 @@
         <v>42790</v>
       </c>
     </row>
-    <row r="176" hidden="1" spans="1:8">
+    <row r="176" spans="1:8">
       <c r="A176" s="46" t="s">
         <v>221</v>
       </c>
@@ -15624,7 +15624,7 @@
         <v>42793</v>
       </c>
     </row>
-    <row r="177" hidden="1" spans="1:8">
+    <row r="177" spans="1:8">
       <c r="A177" s="46" t="s">
         <v>221</v>
       </c>
@@ -15648,7 +15648,7 @@
         <v>42797</v>
       </c>
     </row>
-    <row r="178" hidden="1" spans="1:8">
+    <row r="178" spans="1:8">
       <c r="A178" s="46" t="s">
         <v>221</v>
       </c>
@@ -15672,7 +15672,7 @@
         <v>42800</v>
       </c>
     </row>
-    <row r="179" hidden="1" spans="1:8">
+    <row r="179" spans="1:8">
       <c r="A179" s="46" t="s">
         <v>221</v>
       </c>
@@ -15696,7 +15696,7 @@
         <v>42854</v>
       </c>
     </row>
-    <row r="180" hidden="1" spans="1:8">
+    <row r="180" spans="1:8">
       <c r="A180" s="46" t="s">
         <v>221</v>
       </c>
@@ -15721,7 +15721,7 @@
         <v>42369</v>
       </c>
     </row>
-    <row r="181" hidden="1" spans="1:8">
+    <row r="181" spans="1:8">
       <c r="A181" s="46" t="s">
         <v>221</v>
       </c>
@@ -15743,7 +15743,7 @@
         <v>42804</v>
       </c>
     </row>
-    <row r="182" hidden="1" spans="1:8">
+    <row r="182" spans="1:8">
       <c r="A182" s="46" t="s">
         <v>221</v>
       </c>
@@ -15767,7 +15767,7 @@
         <v>42846</v>
       </c>
     </row>
-    <row r="183" hidden="1" spans="1:8">
+    <row r="183" spans="1:8">
       <c r="A183" s="46" t="s">
         <v>221</v>
       </c>
@@ -15791,7 +15791,7 @@
         <v>42830</v>
       </c>
     </row>
-    <row r="184" hidden="1" spans="1:8">
+    <row r="184" spans="1:8">
       <c r="A184" s="46" t="s">
         <v>221</v>
       </c>
@@ -15815,7 +15815,7 @@
         <v>42855</v>
       </c>
     </row>
-    <row r="185" hidden="1" spans="1:8">
+    <row r="185" spans="1:8">
       <c r="A185" s="46" t="s">
         <v>221</v>
       </c>
@@ -15839,7 +15839,7 @@
         <v>42891</v>
       </c>
     </row>
-    <row r="186" hidden="1" spans="1:8">
+    <row r="186" spans="1:8">
       <c r="A186" s="46" t="s">
         <v>221</v>
       </c>
@@ -15863,7 +15863,7 @@
         <v>42826</v>
       </c>
     </row>
-    <row r="187" hidden="1" spans="1:8">
+    <row r="187" spans="1:8">
       <c r="A187" s="46" t="s">
         <v>221</v>
       </c>
@@ -15887,7 +15887,7 @@
         <v>42866</v>
       </c>
     </row>
-    <row r="188" hidden="1" spans="1:8">
+    <row r="188" spans="1:8">
       <c r="A188" s="46" t="s">
         <v>221</v>
       </c>
@@ -15911,7 +15911,7 @@
         <v>42494</v>
       </c>
     </row>
-    <row r="189" hidden="1" spans="1:8">
+    <row r="189" spans="1:8">
       <c r="A189" s="46" t="s">
         <v>221</v>
       </c>
@@ -15935,7 +15935,7 @@
         <v>42769</v>
       </c>
     </row>
-    <row r="190" hidden="1" spans="1:8">
+    <row r="190" spans="1:8">
       <c r="A190" s="46" t="s">
         <v>221</v>
       </c>
@@ -15959,7 +15959,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="191" hidden="1" spans="1:8">
+    <row r="191" spans="1:8">
       <c r="A191" s="46" t="s">
         <v>221</v>
       </c>
@@ -15983,7 +15983,7 @@
         <v>42606</v>
       </c>
     </row>
-    <row r="192" hidden="1" spans="1:8">
+    <row r="192" spans="1:8">
       <c r="A192" s="46" t="s">
         <v>221</v>
       </c>
@@ -16007,7 +16007,7 @@
         <v>42823</v>
       </c>
     </row>
-    <row r="193" hidden="1" spans="1:8">
+    <row r="193" spans="1:8">
       <c r="A193" s="46" t="s">
         <v>221</v>
       </c>
@@ -16031,7 +16031,7 @@
         <v>42837</v>
       </c>
     </row>
-    <row r="194" hidden="1" spans="1:8">
+    <row r="194" spans="1:8">
       <c r="A194" s="46" t="s">
         <v>221</v>
       </c>
@@ -16055,7 +16055,7 @@
         <v>42847</v>
       </c>
     </row>
-    <row r="195" hidden="1" spans="1:8">
+    <row r="195" spans="1:8">
       <c r="A195" s="46" t="s">
         <v>221</v>
       </c>
@@ -16080,7 +16080,7 @@
         <v>42283</v>
       </c>
     </row>
-    <row r="196" hidden="1" spans="1:8">
+    <row r="196" spans="1:8">
       <c r="A196" s="46" t="s">
         <v>221</v>
       </c>
@@ -16129,7 +16129,7 @@
         <v>42426</v>
       </c>
     </row>
-    <row r="198" hidden="1" spans="1:8">
+    <row r="198" spans="1:8">
       <c r="A198" s="46" t="s">
         <v>221</v>
       </c>
@@ -16153,7 +16153,7 @@
         <v>42581</v>
       </c>
     </row>
-    <row r="199" hidden="1" spans="1:8">
+    <row r="199" spans="1:8">
       <c r="A199" s="46" t="s">
         <v>221</v>
       </c>
@@ -16177,7 +16177,7 @@
         <v>42779</v>
       </c>
     </row>
-    <row r="200" hidden="1" spans="1:8">
+    <row r="200" spans="1:8">
       <c r="A200" s="46" t="s">
         <v>221</v>
       </c>
@@ -16201,7 +16201,7 @@
         <v>42770</v>
       </c>
     </row>
-    <row r="201" hidden="1" spans="1:8">
+    <row r="201" spans="1:8">
       <c r="A201" s="46" t="s">
         <v>221</v>
       </c>
@@ -16225,7 +16225,7 @@
         <v>42786</v>
       </c>
     </row>
-    <row r="202" hidden="1" spans="1:8">
+    <row r="202" spans="1:8">
       <c r="A202" s="46" t="s">
         <v>221</v>
       </c>
@@ -16249,7 +16249,7 @@
         <v>42786</v>
       </c>
     </row>
-    <row r="203" hidden="1" spans="1:8">
+    <row r="203" spans="1:8">
       <c r="A203" s="46" t="s">
         <v>221</v>
       </c>
@@ -16273,7 +16273,7 @@
         <v>42662</v>
       </c>
     </row>
-    <row r="204" hidden="1" spans="1:8">
+    <row r="204" spans="1:8">
       <c r="A204" s="46" t="s">
         <v>221</v>
       </c>
@@ -16297,7 +16297,7 @@
         <v>42881</v>
       </c>
     </row>
-    <row r="205" hidden="1" spans="1:8">
+    <row r="205" spans="1:8">
       <c r="A205" s="46" t="s">
         <v>221</v>
       </c>
@@ -16321,7 +16321,7 @@
         <v>42855</v>
       </c>
     </row>
-    <row r="206" hidden="1" spans="1:8">
+    <row r="206" spans="1:8">
       <c r="A206" s="46" t="s">
         <v>221</v>
       </c>
@@ -16345,7 +16345,7 @@
         <v>42583</v>
       </c>
     </row>
-    <row r="207" hidden="1" spans="1:8">
+    <row r="207" spans="1:8">
       <c r="A207" s="46" t="s">
         <v>221</v>
       </c>
@@ -16369,7 +16369,7 @@
         <v>42893</v>
       </c>
     </row>
-    <row r="208" hidden="1" spans="1:8">
+    <row r="208" spans="1:8">
       <c r="A208" s="46" t="s">
         <v>221</v>
       </c>
@@ -16420,7 +16420,7 @@
         <v>42678</v>
       </c>
     </row>
-    <row r="210" hidden="1" spans="1:8">
+    <row r="210" spans="1:8">
       <c r="A210" s="46" t="s">
         <v>221</v>
       </c>
@@ -16444,7 +16444,7 @@
         <v>42611</v>
       </c>
     </row>
-    <row r="211" hidden="1" spans="1:8">
+    <row r="211" spans="1:8">
       <c r="A211" s="46" t="s">
         <v>221</v>
       </c>
@@ -16468,7 +16468,7 @@
         <v>42657</v>
       </c>
     </row>
-    <row r="212" hidden="1" spans="1:8">
+    <row r="212" spans="1:8">
       <c r="A212" s="46" t="s">
         <v>221</v>
       </c>
@@ -16492,7 +16492,7 @@
         <v>42781</v>
       </c>
     </row>
-    <row r="213" hidden="1" spans="1:8">
+    <row r="213" spans="1:8">
       <c r="A213" s="46" t="s">
         <v>221</v>
       </c>
@@ -16516,7 +16516,7 @@
         <v>42856</v>
       </c>
     </row>
-    <row r="214" hidden="1" spans="1:8">
+    <row r="214" spans="1:8">
       <c r="A214" s="46" t="s">
         <v>221</v>
       </c>
@@ -16540,7 +16540,7 @@
         <v>42871</v>
       </c>
     </row>
-    <row r="215" hidden="1" spans="1:8">
+    <row r="215" spans="1:8">
       <c r="A215" s="46" t="s">
         <v>221</v>
       </c>
@@ -16564,7 +16564,7 @@
         <v>42883</v>
       </c>
     </row>
-    <row r="216" hidden="1" spans="1:8">
+    <row r="216" spans="1:8">
       <c r="A216" s="46" t="s">
         <v>221</v>
       </c>
@@ -16588,7 +16588,7 @@
         <v>42801</v>
       </c>
     </row>
-    <row r="217" hidden="1" spans="1:8">
+    <row r="217" spans="1:8">
       <c r="A217" s="46" t="s">
         <v>221</v>
       </c>
@@ -16612,7 +16612,7 @@
         <v>42848</v>
       </c>
     </row>
-    <row r="218" hidden="1" spans="1:8">
+    <row r="218" spans="1:8">
       <c r="A218" s="46" t="s">
         <v>221</v>
       </c>
@@ -16636,7 +16636,7 @@
         <v>42856</v>
       </c>
     </row>
-    <row r="219" hidden="1" spans="1:8">
+    <row r="219" spans="1:8">
       <c r="A219" s="46" t="s">
         <v>221</v>
       </c>
@@ -16660,7 +16660,7 @@
         <v>42566</v>
       </c>
     </row>
-    <row r="220" hidden="1" spans="1:8">
+    <row r="220" spans="1:8">
       <c r="A220" s="46" t="s">
         <v>221</v>
       </c>
@@ -16684,7 +16684,7 @@
         <v>42620</v>
       </c>
     </row>
-    <row r="221" hidden="1" spans="1:8">
+    <row r="221" spans="1:8">
       <c r="A221" s="46" t="s">
         <v>221</v>
       </c>
@@ -16708,7 +16708,7 @@
         <v>42248</v>
       </c>
     </row>
-    <row r="222" hidden="1" spans="1:8">
+    <row r="222" spans="1:8">
       <c r="A222" s="46" t="s">
         <v>221</v>
       </c>
@@ -16732,7 +16732,7 @@
         <v>42788</v>
       </c>
     </row>
-    <row r="223" hidden="1" spans="1:8">
+    <row r="223" spans="1:8">
       <c r="A223" s="46" t="s">
         <v>221</v>
       </c>
@@ -16756,7 +16756,7 @@
         <v>42786</v>
       </c>
     </row>
-    <row r="224" hidden="1" spans="1:8">
+    <row r="224" spans="1:8">
       <c r="A224" s="46" t="s">
         <v>221</v>
       </c>
@@ -16780,7 +16780,7 @@
         <v>42808</v>
       </c>
     </row>
-    <row r="225" hidden="1" spans="1:8">
+    <row r="225" spans="1:8">
       <c r="A225" s="46" t="s">
         <v>221</v>
       </c>
@@ -16804,7 +16804,7 @@
         <v>42683</v>
       </c>
     </row>
-    <row r="226" hidden="1" spans="1:8">
+    <row r="226" spans="1:8">
       <c r="A226" s="46" t="s">
         <v>221</v>
       </c>
@@ -16828,7 +16828,7 @@
         <v>42859</v>
       </c>
     </row>
-    <row r="227" hidden="1" spans="1:8">
+    <row r="227" spans="1:8">
       <c r="A227" s="46" t="s">
         <v>221</v>
       </c>
@@ -16852,7 +16852,7 @@
         <v>42864</v>
       </c>
     </row>
-    <row r="228" hidden="1" spans="1:8">
+    <row r="228" spans="1:8">
       <c r="A228" s="46" t="s">
         <v>221</v>
       </c>
@@ -16876,7 +16876,7 @@
         <v>42880</v>
       </c>
     </row>
-    <row r="229" hidden="1" spans="1:8">
+    <row r="229" spans="1:8">
       <c r="A229" s="46" t="s">
         <v>221</v>
       </c>
@@ -16900,7 +16900,7 @@
         <v>42605</v>
       </c>
     </row>
-    <row r="230" hidden="1" spans="1:8">
+    <row r="230" spans="1:8">
       <c r="A230" s="46" t="s">
         <v>221</v>
       </c>
@@ -16924,7 +16924,7 @@
         <v>42905</v>
       </c>
     </row>
-    <row r="231" hidden="1" spans="1:8">
+    <row r="231" spans="1:8">
       <c r="A231" s="46" t="s">
         <v>221</v>
       </c>
@@ -16948,7 +16948,7 @@
         <v>42905</v>
       </c>
     </row>
-    <row r="232" hidden="1" spans="1:8">
+    <row r="232" spans="1:8">
       <c r="A232" s="46" t="s">
         <v>221</v>
       </c>
@@ -16973,7 +16973,7 @@
         <v>42170</v>
       </c>
     </row>
-    <row r="233" hidden="1" spans="1:8">
+    <row r="233" spans="1:8">
       <c r="A233" s="46" t="s">
         <v>221</v>
       </c>
@@ -16997,7 +16997,7 @@
         <v>42591</v>
       </c>
     </row>
-    <row r="234" hidden="1" spans="1:8">
+    <row r="234" spans="1:8">
       <c r="A234" s="46" t="s">
         <v>221</v>
       </c>
@@ -17021,7 +17021,7 @@
         <v>42712</v>
       </c>
     </row>
-    <row r="235" hidden="1" spans="1:8">
+    <row r="235" spans="1:8">
       <c r="A235" s="46" t="s">
         <v>221</v>
       </c>
@@ -17045,7 +17045,7 @@
         <v>42807</v>
       </c>
     </row>
-    <row r="236" hidden="1" spans="1:8">
+    <row r="236" spans="1:8">
       <c r="A236" s="46" t="s">
         <v>221</v>
       </c>
@@ -17069,7 +17069,7 @@
         <v>42837</v>
       </c>
     </row>
-    <row r="237" hidden="1" spans="1:8">
+    <row r="237" spans="1:8">
       <c r="A237" s="46" t="s">
         <v>221</v>
       </c>
@@ -17093,7 +17093,7 @@
         <v>42724</v>
       </c>
     </row>
-    <row r="238" hidden="1" spans="1:8">
+    <row r="238" spans="1:8">
       <c r="A238" s="46" t="s">
         <v>221</v>
       </c>
@@ -17117,7 +17117,7 @@
         <v>42905</v>
       </c>
     </row>
-    <row r="239" hidden="1" spans="1:8">
+    <row r="239" spans="1:8">
       <c r="A239" s="46" t="s">
         <v>221</v>
       </c>
@@ -17141,7 +17141,7 @@
         <v>42237</v>
       </c>
     </row>
-    <row r="240" hidden="1" spans="1:8">
+    <row r="240" spans="1:8">
       <c r="A240" s="46" t="s">
         <v>221</v>
       </c>
@@ -17165,7 +17165,7 @@
         <v>42783</v>
       </c>
     </row>
-    <row r="241" hidden="1" spans="1:8">
+    <row r="241" spans="1:8">
       <c r="A241" s="46" t="s">
         <v>221</v>
       </c>
@@ -17189,7 +17189,7 @@
         <v>42620</v>
       </c>
     </row>
-    <row r="242" hidden="1" spans="1:8">
+    <row r="242" spans="1:8">
       <c r="A242" s="46" t="s">
         <v>221</v>
       </c>
@@ -17213,7 +17213,7 @@
         <v>42858</v>
       </c>
     </row>
-    <row r="243" hidden="1" spans="1:8">
+    <row r="243" spans="1:8">
       <c r="A243" s="46" t="s">
         <v>221</v>
       </c>
@@ -17237,7 +17237,7 @@
         <v>42881</v>
       </c>
     </row>
-    <row r="244" hidden="1" spans="1:8">
+    <row r="244" spans="1:8">
       <c r="A244" s="46" t="s">
         <v>221</v>
       </c>
@@ -17288,7 +17288,7 @@
         <v>42349</v>
       </c>
     </row>
-    <row r="246" hidden="1" spans="1:8">
+    <row r="246" spans="1:8">
       <c r="A246" s="46" t="s">
         <v>221</v>
       </c>
@@ -17312,7 +17312,7 @@
         <v>42468</v>
       </c>
     </row>
-    <row r="247" hidden="1" spans="1:8">
+    <row r="247" spans="1:8">
       <c r="A247" s="46" t="s">
         <v>221</v>
       </c>
@@ -17336,7 +17336,7 @@
         <v>42522</v>
       </c>
     </row>
-    <row r="248" hidden="1" spans="1:8">
+    <row r="248" spans="1:8">
       <c r="A248" s="46" t="s">
         <v>221</v>
       </c>
@@ -17360,7 +17360,7 @@
         <v>42552</v>
       </c>
     </row>
-    <row r="249" hidden="1" spans="1:8">
+    <row r="249" spans="1:8">
       <c r="A249" s="46" t="s">
         <v>221</v>
       </c>
@@ -17384,7 +17384,7 @@
         <v>42780</v>
       </c>
     </row>
-    <row r="250" hidden="1" spans="1:8">
+    <row r="250" spans="1:8">
       <c r="A250" s="46" t="s">
         <v>221</v>
       </c>
@@ -17408,7 +17408,7 @@
         <v>42853</v>
       </c>
     </row>
-    <row r="251" hidden="1" spans="1:8">
+    <row r="251" spans="1:8">
       <c r="A251" s="51" t="s">
         <v>321</v>
       </c>
@@ -17433,7 +17433,7 @@
         <v>42205</v>
       </c>
     </row>
-    <row r="252" hidden="1" spans="1:8">
+    <row r="252" spans="1:8">
       <c r="A252" s="51" t="s">
         <v>321</v>
       </c>
@@ -17458,7 +17458,7 @@
         <v>42170</v>
       </c>
     </row>
-    <row r="253" hidden="1" spans="1:8">
+    <row r="253" spans="1:8">
       <c r="A253" s="51" t="s">
         <v>321</v>
       </c>
@@ -17482,7 +17482,7 @@
         <v>42255</v>
       </c>
     </row>
-    <row r="254" hidden="1" spans="1:8">
+    <row r="254" spans="1:8">
       <c r="A254" s="51" t="s">
         <v>321</v>
       </c>
@@ -17506,7 +17506,7 @@
         <v>42443</v>
       </c>
     </row>
-    <row r="255" hidden="1" spans="1:8">
+    <row r="255" spans="1:8">
       <c r="A255" s="51" t="s">
         <v>321</v>
       </c>
@@ -17530,7 +17530,7 @@
         <v>42782</v>
       </c>
     </row>
-    <row r="256" hidden="1" spans="1:8">
+    <row r="256" spans="1:8">
       <c r="A256" s="51" t="s">
         <v>321</v>
       </c>
@@ -17554,7 +17554,7 @@
         <v>42426</v>
       </c>
     </row>
-    <row r="257" hidden="1" spans="1:8">
+    <row r="257" spans="1:8">
       <c r="A257" s="51" t="s">
         <v>321</v>
       </c>
@@ -17578,7 +17578,7 @@
         <v>42643</v>
       </c>
     </row>
-    <row r="258" hidden="1" spans="1:8">
+    <row r="258" spans="1:8">
       <c r="A258" s="51" t="s">
         <v>321</v>
       </c>
@@ -17629,7 +17629,7 @@
         <v>42432</v>
       </c>
     </row>
-    <row r="260" hidden="1" spans="1:8">
+    <row r="260" spans="1:8">
       <c r="A260" s="51" t="s">
         <v>321</v>
       </c>
@@ -17653,7 +17653,7 @@
         <v>42843</v>
       </c>
     </row>
-    <row r="261" hidden="1" spans="1:8">
+    <row r="261" spans="1:8">
       <c r="A261" s="51" t="s">
         <v>321</v>
       </c>
@@ -17677,7 +17677,7 @@
         <v>42424</v>
       </c>
     </row>
-    <row r="262" hidden="1" spans="1:8">
+    <row r="262" spans="1:8">
       <c r="A262" s="51" t="s">
         <v>321</v>
       </c>
@@ -17701,7 +17701,7 @@
         <v>42426</v>
       </c>
     </row>
-    <row r="263" hidden="1" spans="1:8">
+    <row r="263" spans="1:8">
       <c r="A263" s="51" t="s">
         <v>321</v>
       </c>
@@ -17725,7 +17725,7 @@
         <v>42168</v>
       </c>
     </row>
-    <row r="264" hidden="1" spans="1:8">
+    <row r="264" spans="1:8">
       <c r="A264" s="51" t="s">
         <v>321</v>
       </c>
@@ -17750,7 +17750,7 @@
         <v>42815</v>
       </c>
     </row>
-    <row r="265" hidden="1" spans="1:8">
+    <row r="265" spans="1:8">
       <c r="A265" s="51" t="s">
         <v>321</v>
       </c>
@@ -17799,7 +17799,7 @@
         <v>42340</v>
       </c>
     </row>
-    <row r="267" hidden="1" spans="1:8">
+    <row r="267" spans="1:8">
       <c r="A267" s="51" t="s">
         <v>321</v>
       </c>
@@ -17823,7 +17823,7 @@
         <v>42275</v>
       </c>
     </row>
-    <row r="268" hidden="1" spans="1:8">
+    <row r="268" spans="1:8">
       <c r="A268" s="51" t="s">
         <v>321</v>
       </c>
@@ -17847,7 +17847,7 @@
         <v>42272</v>
       </c>
     </row>
-    <row r="269" hidden="1" spans="1:8">
+    <row r="269" spans="1:8">
       <c r="A269" s="51" t="s">
         <v>321</v>
       </c>
@@ -17871,7 +17871,7 @@
         <v>42555</v>
       </c>
     </row>
-    <row r="270" hidden="1" spans="1:8">
+    <row r="270" spans="1:8">
       <c r="A270" s="51" t="s">
         <v>321</v>
       </c>
@@ -17895,7 +17895,7 @@
         <v>42874</v>
       </c>
     </row>
-    <row r="271" hidden="1" spans="1:8">
+    <row r="271" spans="1:8">
       <c r="A271" s="51" t="s">
         <v>321</v>
       </c>
@@ -17919,7 +17919,7 @@
         <v>42583</v>
       </c>
     </row>
-    <row r="272" hidden="1" spans="1:8">
+    <row r="272" spans="1:8">
       <c r="A272" s="51" t="s">
         <v>321</v>
       </c>
@@ -17943,7 +17943,7 @@
         <v>42583</v>
       </c>
     </row>
-    <row r="273" hidden="1" spans="1:8">
+    <row r="273" spans="1:8">
       <c r="A273" s="51" t="s">
         <v>321</v>
       </c>
@@ -17967,7 +17967,7 @@
         <v>42719</v>
       </c>
     </row>
-    <row r="274" hidden="1" spans="1:8">
+    <row r="274" spans="1:8">
       <c r="A274" s="51" t="s">
         <v>321</v>
       </c>
@@ -17991,7 +17991,7 @@
         <v>42855</v>
       </c>
     </row>
-    <row r="275" hidden="1" spans="1:8">
+    <row r="275" spans="1:8">
       <c r="A275" s="51" t="s">
         <v>321</v>
       </c>
@@ -18040,7 +18040,7 @@
         <v>42776</v>
       </c>
     </row>
-    <row r="277" hidden="1" spans="1:8">
+    <row r="277" spans="1:8">
       <c r="A277" s="51" t="s">
         <v>321</v>
       </c>
@@ -18064,7 +18064,7 @@
         <v>42776</v>
       </c>
     </row>
-    <row r="278" hidden="1" spans="1:8">
+    <row r="278" spans="1:8">
       <c r="A278" s="51" t="s">
         <v>321</v>
       </c>
@@ -18088,7 +18088,7 @@
         <v>42778</v>
       </c>
     </row>
-    <row r="279" hidden="1" spans="1:8">
+    <row r="279" spans="1:8">
       <c r="A279" s="51" t="s">
         <v>321</v>
       </c>
@@ -18112,7 +18112,7 @@
         <v>42778</v>
       </c>
     </row>
-    <row r="280" hidden="1" spans="1:8">
+    <row r="280" spans="1:8">
       <c r="A280" s="51" t="s">
         <v>321</v>
       </c>
@@ -18136,7 +18136,7 @@
         <v>42778</v>
       </c>
     </row>
-    <row r="281" hidden="1" spans="1:8">
+    <row r="281" spans="1:8">
       <c r="A281" s="51" t="s">
         <v>321</v>
       </c>
@@ -18160,7 +18160,7 @@
         <v>42811</v>
       </c>
     </row>
-    <row r="282" hidden="1" spans="1:8">
+    <row r="282" spans="1:8">
       <c r="A282" s="51" t="s">
         <v>321</v>
       </c>
@@ -18184,7 +18184,7 @@
         <v>42804</v>
       </c>
     </row>
-    <row r="283" hidden="1" spans="1:8">
+    <row r="283" spans="1:8">
       <c r="A283" s="51" t="s">
         <v>321</v>
       </c>
@@ -18208,7 +18208,7 @@
         <v>42289</v>
       </c>
     </row>
-    <row r="284" hidden="1" spans="1:8">
+    <row r="284" spans="1:8">
       <c r="A284" s="51" t="s">
         <v>321</v>
       </c>
@@ -18232,7 +18232,7 @@
         <v>42299</v>
       </c>
     </row>
-    <row r="285" hidden="1" spans="1:8">
+    <row r="285" spans="1:8">
       <c r="A285" s="51" t="s">
         <v>321</v>
       </c>
@@ -18256,7 +18256,7 @@
         <v>42777</v>
       </c>
     </row>
-    <row r="286" hidden="1" spans="1:8">
+    <row r="286" spans="1:8">
       <c r="A286" s="51" t="s">
         <v>321</v>
       </c>
@@ -18280,7 +18280,7 @@
         <v>42769</v>
       </c>
     </row>
-    <row r="287" hidden="1" spans="1:8">
+    <row r="287" spans="1:8">
       <c r="A287" s="51" t="s">
         <v>321</v>
       </c>
@@ -18304,7 +18304,7 @@
         <v>42777</v>
       </c>
     </row>
-    <row r="288" hidden="1" spans="1:8">
+    <row r="288" spans="1:8">
       <c r="A288" s="51" t="s">
         <v>321</v>
       </c>
@@ -18328,7 +18328,7 @@
         <v>42836</v>
       </c>
     </row>
-    <row r="289" hidden="1" spans="1:8">
+    <row r="289" spans="1:8">
       <c r="A289" s="51" t="s">
         <v>321</v>
       </c>
@@ -18352,7 +18352,7 @@
         <v>42784</v>
       </c>
     </row>
-    <row r="290" hidden="1" spans="1:8">
+    <row r="290" spans="1:8">
       <c r="A290" s="51" t="s">
         <v>321</v>
       </c>
@@ -18376,7 +18376,7 @@
         <v>42582</v>
       </c>
     </row>
-    <row r="291" hidden="1" spans="1:8">
+    <row r="291" spans="1:8">
       <c r="A291" s="51" t="s">
         <v>321</v>
       </c>
@@ -18400,7 +18400,7 @@
         <v>42611</v>
       </c>
     </row>
-    <row r="292" hidden="1" spans="1:8">
+    <row r="292" spans="1:8">
       <c r="A292" s="51" t="s">
         <v>321</v>
       </c>
@@ -18424,7 +18424,7 @@
         <v>42777</v>
       </c>
     </row>
-    <row r="293" hidden="1" spans="1:8">
+    <row r="293" spans="1:8">
       <c r="A293" s="51" t="s">
         <v>321</v>
       </c>
@@ -18449,7 +18449,7 @@
         <v>42205</v>
       </c>
     </row>
-    <row r="294" hidden="1" spans="1:8">
+    <row r="294" spans="1:8">
       <c r="A294" s="51" t="s">
         <v>321</v>
       </c>
@@ -18471,7 +18471,7 @@
         <v>42848</v>
       </c>
     </row>
-    <row r="295" hidden="1" spans="1:8">
+    <row r="295" spans="1:8">
       <c r="A295" s="51" t="s">
         <v>321</v>
       </c>
@@ -18495,7 +18495,7 @@
         <v>42580</v>
       </c>
     </row>
-    <row r="296" hidden="1" spans="1:8">
+    <row r="296" spans="1:8">
       <c r="A296" s="51" t="s">
         <v>321</v>
       </c>
@@ -18519,7 +18519,7 @@
         <v>42597</v>
       </c>
     </row>
-    <row r="297" hidden="1" spans="1:8">
+    <row r="297" spans="1:8">
       <c r="A297" s="51" t="s">
         <v>321</v>
       </c>
@@ -18543,7 +18543,7 @@
         <v>42653</v>
       </c>
     </row>
-    <row r="298" hidden="1" spans="1:8">
+    <row r="298" spans="1:8">
       <c r="A298" s="51" t="s">
         <v>321</v>
       </c>
@@ -18567,7 +18567,7 @@
         <v>42414</v>
       </c>
     </row>
-    <row r="299" hidden="1" spans="1:8">
+    <row r="299" spans="1:8">
       <c r="A299" s="51" t="s">
         <v>321</v>
       </c>
@@ -18591,7 +18591,7 @@
         <v>42508</v>
       </c>
     </row>
-    <row r="300" hidden="1" spans="1:8">
+    <row r="300" spans="1:8">
       <c r="A300" s="51" t="s">
         <v>321</v>
       </c>
@@ -18615,7 +18615,7 @@
         <v>42203</v>
       </c>
     </row>
-    <row r="301" hidden="1" spans="1:8">
+    <row r="301" spans="1:8">
       <c r="A301" s="51" t="s">
         <v>321</v>
       </c>
@@ -18639,7 +18639,7 @@
         <v>42775</v>
       </c>
     </row>
-    <row r="302" hidden="1" spans="1:8">
+    <row r="302" spans="1:8">
       <c r="A302" s="51" t="s">
         <v>321</v>
       </c>
@@ -18663,7 +18663,7 @@
         <v>42436</v>
       </c>
     </row>
-    <row r="303" hidden="1" spans="1:8">
+    <row r="303" spans="1:8">
       <c r="A303" s="51" t="s">
         <v>321</v>
       </c>
@@ -18687,7 +18687,7 @@
         <v>42775</v>
       </c>
     </row>
-    <row r="304" hidden="1" spans="1:8">
+    <row r="304" spans="1:8">
       <c r="A304" s="51" t="s">
         <v>321</v>
       </c>
@@ -18711,7 +18711,7 @@
         <v>42423</v>
       </c>
     </row>
-    <row r="305" hidden="1" spans="1:8">
+    <row r="305" spans="1:8">
       <c r="A305" s="51" t="s">
         <v>321</v>
       </c>
@@ -18735,7 +18735,7 @@
         <v>42872</v>
       </c>
     </row>
-    <row r="306" hidden="1" spans="1:8">
+    <row r="306" spans="1:8">
       <c r="A306" s="51" t="s">
         <v>321</v>
       </c>
@@ -18759,7 +18759,7 @@
         <v>42877</v>
       </c>
     </row>
-    <row r="307" hidden="1" spans="1:8">
+    <row r="307" spans="1:8">
       <c r="A307" s="51" t="s">
         <v>321</v>
       </c>
@@ -18783,7 +18783,7 @@
         <v>42832</v>
       </c>
     </row>
-    <row r="308" hidden="1" spans="1:8">
+    <row r="308" spans="1:8">
       <c r="A308" s="51" t="s">
         <v>321</v>
       </c>
@@ -18807,7 +18807,7 @@
         <v>42783</v>
       </c>
     </row>
-    <row r="309" hidden="1" spans="1:8">
+    <row r="309" spans="1:8">
       <c r="A309" s="55" t="s">
         <v>383</v>
       </c>
@@ -18815,7 +18815,7 @@
         <v>308</v>
       </c>
       <c r="C309" s="12" t="str">
-        <f>D309&amp;F309</f>
+        <f t="shared" ref="C309:C312" si="0">D309&amp;F309</f>
         <v>南二区</v>
       </c>
       <c r="D309" s="27" t="s">
@@ -18832,7 +18832,7 @@
         <v>42170</v>
       </c>
     </row>
-    <row r="310" hidden="1" spans="1:8">
+    <row r="310" spans="1:8">
       <c r="A310" s="55" t="s">
         <v>383</v>
       </c>
@@ -18840,7 +18840,7 @@
         <v>309</v>
       </c>
       <c r="C310" s="12" t="str">
-        <f>D310&amp;F310</f>
+        <f t="shared" si="0"/>
         <v>天子庄园店</v>
       </c>
       <c r="D310" s="15" t="s">
@@ -18857,7 +18857,7 @@
         <v>42562</v>
       </c>
     </row>
-    <row r="311" hidden="1" spans="1:8">
+    <row r="311" spans="1:8">
       <c r="A311" s="55" t="s">
         <v>383</v>
       </c>
@@ -18887,7 +18887,7 @@
         <v>311</v>
       </c>
       <c r="C312" s="12" t="str">
-        <f>D312&amp;F312</f>
+        <f t="shared" si="0"/>
         <v>天子庄园店A</v>
       </c>
       <c r="D312" s="32" t="s">
@@ -18906,7 +18906,7 @@
         <v>42653</v>
       </c>
     </row>
-    <row r="313" hidden="1" spans="1:8">
+    <row r="313" spans="1:8">
       <c r="A313" s="55" t="s">
         <v>383</v>
       </c>
@@ -18930,7 +18930,7 @@
         <v>42702</v>
       </c>
     </row>
-    <row r="314" hidden="1" spans="1:8">
+    <row r="314" spans="1:8">
       <c r="A314" s="55" t="s">
         <v>383</v>
       </c>
@@ -18954,7 +18954,7 @@
         <v>42588</v>
       </c>
     </row>
-    <row r="315" hidden="1" spans="1:8">
+    <row r="315" spans="1:8">
       <c r="A315" s="55" t="s">
         <v>383</v>
       </c>
@@ -18978,7 +18978,7 @@
         <v>42796</v>
       </c>
     </row>
-    <row r="316" hidden="1" spans="1:8">
+    <row r="316" spans="1:8">
       <c r="A316" s="55" t="s">
         <v>383</v>
       </c>
@@ -19002,7 +19002,7 @@
         <v>42881</v>
       </c>
     </row>
-    <row r="317" hidden="1" spans="1:8">
+    <row r="317" spans="1:8">
       <c r="A317" s="55" t="s">
         <v>383</v>
       </c>
@@ -19026,7 +19026,7 @@
         <v>42779</v>
       </c>
     </row>
-    <row r="318" hidden="1" spans="1:8">
+    <row r="318" spans="1:8">
       <c r="A318" s="55" t="s">
         <v>383</v>
       </c>
@@ -19050,7 +19050,7 @@
         <v>42681</v>
       </c>
     </row>
-    <row r="319" hidden="1" spans="1:8">
+    <row r="319" spans="1:8">
       <c r="A319" s="55" t="s">
         <v>383</v>
       </c>
@@ -19074,7 +19074,7 @@
         <v>42597</v>
       </c>
     </row>
-    <row r="320" hidden="1" spans="1:8">
+    <row r="320" spans="1:8">
       <c r="A320" s="55" t="s">
         <v>383</v>
       </c>
@@ -19098,7 +19098,7 @@
         <v>42782</v>
       </c>
     </row>
-    <row r="321" hidden="1" spans="1:8">
+    <row r="321" spans="1:8">
       <c r="A321" s="55" t="s">
         <v>383</v>
       </c>
@@ -19122,7 +19122,7 @@
         <v>42814</v>
       </c>
     </row>
-    <row r="322" hidden="1" spans="1:8">
+    <row r="322" spans="1:8">
       <c r="A322" s="55" t="s">
         <v>383</v>
       </c>
@@ -19173,7 +19173,7 @@
         <v>42431</v>
       </c>
     </row>
-    <row r="324" hidden="1" spans="1:8">
+    <row r="324" spans="1:8">
       <c r="A324" s="55" t="s">
         <v>383</v>
       </c>
@@ -19197,7 +19197,7 @@
         <v>42604</v>
       </c>
     </row>
-    <row r="325" hidden="1" spans="1:8">
+    <row r="325" spans="1:8">
       <c r="A325" s="55" t="s">
         <v>383</v>
       </c>
@@ -19221,7 +19221,7 @@
         <v>42706</v>
       </c>
     </row>
-    <row r="326" hidden="1" spans="1:8">
+    <row r="326" spans="1:8">
       <c r="A326" s="55" t="s">
         <v>383</v>
       </c>
@@ -19245,7 +19245,7 @@
         <v>42779</v>
       </c>
     </row>
-    <row r="327" hidden="1" spans="1:8">
+    <row r="327" spans="1:8">
       <c r="A327" s="55" t="s">
         <v>383</v>
       </c>
@@ -19269,7 +19269,7 @@
         <v>42733</v>
       </c>
     </row>
-    <row r="328" hidden="1" spans="1:8">
+    <row r="328" spans="1:8">
       <c r="A328" s="55" t="s">
         <v>383</v>
       </c>
@@ -19293,7 +19293,7 @@
         <v>42775</v>
       </c>
     </row>
-    <row r="329" hidden="1" spans="1:8">
+    <row r="329" spans="1:8">
       <c r="A329" s="55" t="s">
         <v>383</v>
       </c>
@@ -19317,7 +19317,7 @@
         <v>42794</v>
       </c>
     </row>
-    <row r="330" hidden="1" spans="1:8">
+    <row r="330" spans="1:8">
       <c r="A330" s="55" t="s">
         <v>383</v>
       </c>
@@ -19341,7 +19341,7 @@
         <v>42826</v>
       </c>
     </row>
-    <row r="331" hidden="1" spans="1:8">
+    <row r="331" spans="1:8">
       <c r="A331" s="55" t="s">
         <v>383</v>
       </c>
@@ -19365,7 +19365,7 @@
         <v>42594</v>
       </c>
     </row>
-    <row r="332" hidden="1" spans="1:8">
+    <row r="332" spans="1:8">
       <c r="A332" s="55" t="s">
         <v>383</v>
       </c>
@@ -19390,7 +19390,7 @@
         <v>42614</v>
       </c>
     </row>
-    <row r="333" hidden="1" spans="1:8">
+    <row r="333" spans="1:8">
       <c r="A333" s="55" t="s">
         <v>383</v>
       </c>
@@ -19439,7 +19439,7 @@
         <v>42601</v>
       </c>
     </row>
-    <row r="335" hidden="1" spans="1:8">
+    <row r="335" spans="1:8">
       <c r="A335" s="55" t="s">
         <v>383</v>
       </c>
@@ -19463,7 +19463,7 @@
         <v>42622</v>
       </c>
     </row>
-    <row r="336" hidden="1" spans="1:8">
+    <row r="336" spans="1:8">
       <c r="A336" s="55" t="s">
         <v>383</v>
       </c>
@@ -19487,7 +19487,7 @@
         <v>42634</v>
       </c>
     </row>
-    <row r="337" hidden="1" spans="1:8">
+    <row r="337" spans="1:8">
       <c r="A337" s="55" t="s">
         <v>383</v>
       </c>
@@ -19511,7 +19511,7 @@
         <v>42414</v>
       </c>
     </row>
-    <row r="338" hidden="1" spans="1:8">
+    <row r="338" spans="1:8">
       <c r="A338" s="55" t="s">
         <v>383</v>
       </c>
@@ -19535,7 +19535,7 @@
         <v>42671</v>
       </c>
     </row>
-    <row r="339" hidden="1" spans="1:8">
+    <row r="339" spans="1:8">
       <c r="A339" s="55" t="s">
         <v>383</v>
       </c>
@@ -19559,7 +19559,7 @@
         <v>42657</v>
       </c>
     </row>
-    <row r="340" hidden="1" spans="1:8">
+    <row r="340" spans="1:8">
       <c r="A340" s="55" t="s">
         <v>383</v>
       </c>
@@ -19583,7 +19583,7 @@
         <v>42719</v>
       </c>
     </row>
-    <row r="341" hidden="1" spans="1:8">
+    <row r="341" spans="1:8">
       <c r="A341" s="55" t="s">
         <v>383</v>
       </c>
@@ -19607,7 +19607,7 @@
         <v>42772</v>
       </c>
     </row>
-    <row r="342" hidden="1" spans="1:8">
+    <row r="342" spans="1:8">
       <c r="A342" s="55" t="s">
         <v>383</v>
       </c>
@@ -19631,7 +19631,7 @@
         <v>42860</v>
       </c>
     </row>
-    <row r="343" hidden="1" spans="1:8">
+    <row r="343" spans="1:8">
       <c r="A343" s="55" t="s">
         <v>383</v>
       </c>
@@ -19655,7 +19655,7 @@
         <v>42636</v>
       </c>
     </row>
-    <row r="344" hidden="1" spans="1:8">
+    <row r="344" spans="1:8">
       <c r="A344" s="55" t="s">
         <v>383</v>
       </c>
@@ -19679,7 +19679,7 @@
         <v>42855</v>
       </c>
     </row>
-    <row r="345" hidden="1" spans="1:8">
+    <row r="345" spans="1:8">
       <c r="A345" s="55" t="s">
         <v>383</v>
       </c>
@@ -19703,7 +19703,7 @@
         <v>42779</v>
       </c>
     </row>
-    <row r="346" hidden="1" spans="1:8">
+    <row r="346" spans="1:8">
       <c r="A346" s="55" t="s">
         <v>383</v>
       </c>
@@ -19727,7 +19727,7 @@
         <v>42793</v>
       </c>
     </row>
-    <row r="347" hidden="1" spans="1:8">
+    <row r="347" spans="1:8">
       <c r="A347" s="55" t="s">
         <v>383</v>
       </c>
@@ -19751,7 +19751,7 @@
         <v>42615</v>
       </c>
     </row>
-    <row r="348" hidden="1" spans="1:8">
+    <row r="348" spans="1:8">
       <c r="A348" s="55" t="s">
         <v>383</v>
       </c>
@@ -19775,7 +19775,7 @@
         <v>42846</v>
       </c>
     </row>
-    <row r="349" hidden="1" spans="1:8">
+    <row r="349" spans="1:8">
       <c r="A349" s="55" t="s">
         <v>383</v>
       </c>
@@ -19799,7 +19799,7 @@
         <v>42846</v>
       </c>
     </row>
-    <row r="350" hidden="1" spans="1:8">
+    <row r="350" spans="1:8">
       <c r="A350" s="55" t="s">
         <v>383</v>
       </c>
@@ -19823,7 +19823,7 @@
         <v>42871</v>
       </c>
     </row>
-    <row r="351" hidden="1" spans="1:8">
+    <row r="351" spans="1:8">
       <c r="A351" s="55" t="s">
         <v>383</v>
       </c>
@@ -19847,7 +19847,7 @@
         <v>42828</v>
       </c>
     </row>
-    <row r="352" hidden="1" spans="1:8">
+    <row r="352" spans="1:8">
       <c r="A352" s="55" t="s">
         <v>383</v>
       </c>
@@ -19871,7 +19871,7 @@
         <v>42653</v>
       </c>
     </row>
-    <row r="353" hidden="1" spans="1:8">
+    <row r="353" spans="1:8">
       <c r="A353" s="55" t="s">
         <v>383</v>
       </c>
@@ -19920,7 +19920,7 @@
         <v>42256</v>
       </c>
     </row>
-    <row r="355" hidden="1" spans="1:8">
+    <row r="355" spans="1:8">
       <c r="A355" s="55" t="s">
         <v>383</v>
       </c>
@@ -19944,7 +19944,7 @@
         <v>42777</v>
       </c>
     </row>
-    <row r="356" hidden="1" spans="1:8">
+    <row r="356" spans="1:8">
       <c r="A356" s="55" t="s">
         <v>383</v>
       </c>
@@ -19968,7 +19968,7 @@
         <v>42777</v>
       </c>
     </row>
-    <row r="357" hidden="1" spans="1:8">
+    <row r="357" spans="1:8">
       <c r="A357" s="55" t="s">
         <v>383</v>
       </c>
@@ -19992,7 +19992,7 @@
         <v>42781</v>
       </c>
     </row>
-    <row r="358" hidden="1" spans="1:8">
+    <row r="358" spans="1:8">
       <c r="A358" s="55" t="s">
         <v>383</v>
       </c>
@@ -20016,7 +20016,7 @@
         <v>42781</v>
       </c>
     </row>
-    <row r="359" hidden="1" spans="1:8">
+    <row r="359" spans="1:8">
       <c r="A359" s="55" t="s">
         <v>383</v>
       </c>
@@ -20040,7 +20040,7 @@
         <v>42787</v>
       </c>
     </row>
-    <row r="360" hidden="1" spans="1:8">
+    <row r="360" spans="1:8">
       <c r="A360" s="55" t="s">
         <v>383</v>
       </c>
@@ -20064,7 +20064,7 @@
         <v>42794</v>
       </c>
     </row>
-    <row r="361" hidden="1" spans="1:8">
+    <row r="361" spans="1:8">
       <c r="A361" s="55" t="s">
         <v>383</v>
       </c>
@@ -20088,7 +20088,7 @@
         <v>42426</v>
       </c>
     </row>
-    <row r="362" hidden="1" spans="1:8">
+    <row r="362" spans="1:8">
       <c r="A362" s="55" t="s">
         <v>383</v>
       </c>
@@ -20112,7 +20112,7 @@
         <v>42388</v>
       </c>
     </row>
-    <row r="363" hidden="1" spans="1:8">
+    <row r="363" spans="1:8">
       <c r="A363" s="55" t="s">
         <v>383</v>
       </c>
@@ -20163,7 +20163,7 @@
         <v>42311</v>
       </c>
     </row>
-    <row r="365" hidden="1" spans="1:8">
+    <row r="365" spans="1:8">
       <c r="A365" s="55" t="s">
         <v>383</v>
       </c>
@@ -20187,7 +20187,7 @@
         <v>42716</v>
       </c>
     </row>
-    <row r="366" hidden="1" spans="1:8">
+    <row r="366" spans="1:8">
       <c r="A366" s="55" t="s">
         <v>383</v>
       </c>
@@ -20211,7 +20211,7 @@
         <v>42657</v>
       </c>
     </row>
-    <row r="367" hidden="1" spans="1:8">
+    <row r="367" spans="1:8">
       <c r="A367" s="55" t="s">
         <v>383</v>
       </c>
@@ -20235,7 +20235,7 @@
         <v>42849</v>
       </c>
     </row>
-    <row r="368" hidden="1" spans="1:8">
+    <row r="368" spans="1:8">
       <c r="A368" s="55" t="s">
         <v>383</v>
       </c>
@@ -20259,7 +20259,7 @@
         <v>42892</v>
       </c>
     </row>
-    <row r="369" hidden="1" spans="1:8">
+    <row r="369" spans="1:8">
       <c r="A369" s="55" t="s">
         <v>383</v>
       </c>
@@ -20284,7 +20284,7 @@
         <v>42261</v>
       </c>
     </row>
-    <row r="370" hidden="1" spans="1:8">
+    <row r="370" spans="1:8">
       <c r="A370" s="55" t="s">
         <v>383</v>
       </c>
@@ -20306,7 +20306,7 @@
         <v>42701</v>
       </c>
     </row>
-    <row r="371" hidden="1" spans="1:8">
+    <row r="371" spans="1:8">
       <c r="A371" s="55" t="s">
         <v>383</v>
       </c>
@@ -20330,7 +20330,7 @@
         <v>42615</v>
       </c>
     </row>
-    <row r="372" hidden="1" spans="1:8">
+    <row r="372" spans="1:8">
       <c r="A372" s="55" t="s">
         <v>383</v>
       </c>
@@ -20354,7 +20354,7 @@
         <v>42625</v>
       </c>
     </row>
-    <row r="373" hidden="1" spans="1:8">
+    <row r="373" spans="1:8">
       <c r="A373" s="55" t="s">
         <v>383</v>
       </c>
@@ -20378,7 +20378,7 @@
         <v>42664</v>
       </c>
     </row>
-    <row r="374" hidden="1" spans="1:8">
+    <row r="374" spans="1:8">
       <c r="A374" s="55" t="s">
         <v>383</v>
       </c>
@@ -20402,7 +20402,7 @@
         <v>42781</v>
       </c>
     </row>
-    <row r="375" hidden="1" spans="1:8">
+    <row r="375" spans="1:8">
       <c r="A375" s="55" t="s">
         <v>383</v>
       </c>
@@ -20426,7 +20426,7 @@
         <v>42835</v>
       </c>
     </row>
-    <row r="376" hidden="1" spans="1:8">
+    <row r="376" spans="1:8">
       <c r="A376" s="55" t="s">
         <v>383</v>
       </c>
@@ -20450,7 +20450,7 @@
         <v>42863</v>
       </c>
     </row>
-    <row r="377" hidden="1" spans="1:8">
+    <row r="377" spans="1:8">
       <c r="A377" s="55" t="s">
         <v>383</v>
       </c>
@@ -20474,7 +20474,7 @@
         <v>42863</v>
       </c>
     </row>
-    <row r="378" hidden="1" spans="1:8">
+    <row r="378" spans="1:8">
       <c r="A378" s="55" t="s">
         <v>383</v>
       </c>
@@ -20498,7 +20498,7 @@
         <v>42888</v>
       </c>
     </row>
-    <row r="379" hidden="1" spans="1:8">
+    <row r="379" spans="1:8">
       <c r="A379" s="55" t="s">
         <v>383</v>
       </c>
@@ -20522,7 +20522,7 @@
         <v>42824</v>
       </c>
     </row>
-    <row r="380" hidden="1" spans="1:8">
+    <row r="380" spans="1:8">
       <c r="A380" s="55" t="s">
         <v>383</v>
       </c>
@@ -20546,7 +20546,7 @@
         <v>42622</v>
       </c>
     </row>
-    <row r="381" hidden="1" spans="1:8">
+    <row r="381" spans="1:8">
       <c r="A381" s="55" t="s">
         <v>383</v>
       </c>
@@ -20570,7 +20570,7 @@
         <v>42846</v>
       </c>
     </row>
-    <row r="382" hidden="1" spans="1:8">
+    <row r="382" spans="1:8">
       <c r="A382" s="55" t="s">
         <v>383</v>
       </c>
@@ -20594,7 +20594,7 @@
         <v>42851</v>
       </c>
     </row>
-    <row r="383" hidden="1" spans="1:8">
+    <row r="383" spans="1:8">
       <c r="A383" s="55" t="s">
         <v>383</v>
       </c>
@@ -20618,7 +20618,7 @@
         <v>42517</v>
       </c>
     </row>
-    <row r="384" hidden="1" spans="1:8">
+    <row r="384" spans="1:8">
       <c r="A384" s="55" t="s">
         <v>383</v>
       </c>
@@ -20642,7 +20642,7 @@
         <v>42436</v>
       </c>
     </row>
-    <row r="385" hidden="1" spans="1:8">
+    <row r="385" spans="1:8">
       <c r="A385" s="55" t="s">
         <v>383</v>
       </c>
@@ -20666,7 +20666,7 @@
         <v>42891</v>
       </c>
     </row>
-    <row r="386" hidden="1" spans="1:8">
+    <row r="386" spans="1:8">
       <c r="A386" s="67" t="s">
         <v>465</v>
       </c>
@@ -20691,7 +20691,7 @@
         <v>42462</v>
       </c>
     </row>
-    <row r="387" hidden="1" spans="1:8">
+    <row r="387" spans="1:8">
       <c r="A387" s="67" t="s">
         <v>465</v>
       </c>
@@ -20740,7 +20740,7 @@
         <v>42442</v>
       </c>
     </row>
-    <row r="389" hidden="1" spans="1:8">
+    <row r="389" spans="1:8">
       <c r="A389" s="67" t="s">
         <v>465</v>
       </c>
@@ -20764,7 +20764,7 @@
         <v>42771</v>
       </c>
     </row>
-    <row r="390" hidden="1" spans="1:8">
+    <row r="390" spans="1:8">
       <c r="A390" s="67" t="s">
         <v>465</v>
       </c>
@@ -20788,7 +20788,7 @@
         <v>42787</v>
       </c>
     </row>
-    <row r="391" hidden="1" spans="1:8">
+    <row r="391" spans="1:8">
       <c r="A391" s="67" t="s">
         <v>465</v>
       </c>
@@ -20812,7 +20812,7 @@
         <v>42525</v>
       </c>
     </row>
-    <row r="392" hidden="1" spans="1:8">
+    <row r="392" spans="1:8">
       <c r="A392" s="67" t="s">
         <v>465</v>
       </c>
@@ -20836,7 +20836,7 @@
         <v>42499</v>
       </c>
     </row>
-    <row r="393" hidden="1" spans="1:8">
+    <row r="393" spans="1:8">
       <c r="A393" s="67" t="s">
         <v>465</v>
       </c>
@@ -20887,7 +20887,7 @@
         <v>42782</v>
       </c>
     </row>
-    <row r="395" hidden="1" spans="1:8">
+    <row r="395" spans="1:8">
       <c r="A395" s="67" t="s">
         <v>465</v>
       </c>
@@ -20911,7 +20911,7 @@
         <v>42780</v>
       </c>
     </row>
-    <row r="396" hidden="1" spans="1:8">
+    <row r="396" spans="1:8">
       <c r="A396" s="67" t="s">
         <v>465</v>
       </c>
@@ -20935,7 +20935,7 @@
         <v>42780</v>
       </c>
     </row>
-    <row r="397" hidden="1" spans="1:8">
+    <row r="397" spans="1:8">
       <c r="A397" s="67" t="s">
         <v>465</v>
       </c>
@@ -20959,7 +20959,7 @@
         <v>42820</v>
       </c>
     </row>
-    <row r="398" hidden="1" spans="1:8">
+    <row r="398" spans="1:8">
       <c r="A398" s="67" t="s">
         <v>465</v>
       </c>
@@ -20983,7 +20983,7 @@
         <v>42872</v>
       </c>
     </row>
-    <row r="399" hidden="1" spans="1:8">
+    <row r="399" spans="1:8">
       <c r="A399" s="67" t="s">
         <v>465</v>
       </c>
@@ -21007,7 +21007,7 @@
         <v>42782</v>
       </c>
     </row>
-    <row r="400" hidden="1" spans="1:8">
+    <row r="400" spans="1:8">
       <c r="A400" s="67" t="s">
         <v>465</v>
       </c>
@@ -21058,7 +21058,7 @@
         <v>42499</v>
       </c>
     </row>
-    <row r="402" hidden="1" spans="1:8">
+    <row r="402" spans="1:8">
       <c r="A402" s="67" t="s">
         <v>465</v>
       </c>
@@ -21082,7 +21082,7 @@
         <v>42585</v>
       </c>
     </row>
-    <row r="403" hidden="1" spans="1:8">
+    <row r="403" spans="1:8">
       <c r="A403" s="67" t="s">
         <v>465</v>
       </c>
@@ -21106,7 +21106,7 @@
         <v>42614</v>
       </c>
     </row>
-    <row r="404" hidden="1" spans="1:8">
+    <row r="404" spans="1:8">
       <c r="A404" s="67" t="s">
         <v>465</v>
       </c>
@@ -21130,7 +21130,7 @@
         <v>42627</v>
       </c>
     </row>
-    <row r="405" hidden="1" spans="1:8">
+    <row r="405" spans="1:8">
       <c r="A405" s="67" t="s">
         <v>465</v>
       </c>
@@ -21154,7 +21154,7 @@
         <v>42716</v>
       </c>
     </row>
-    <row r="406" hidden="1" spans="1:8">
+    <row r="406" spans="1:8">
       <c r="A406" s="67" t="s">
         <v>465</v>
       </c>
@@ -21178,7 +21178,7 @@
         <v>42531</v>
       </c>
     </row>
-    <row r="407" hidden="1" spans="1:8">
+    <row r="407" spans="1:8">
       <c r="A407" s="67" t="s">
         <v>465</v>
       </c>
@@ -21202,7 +21202,7 @@
         <v>42866</v>
       </c>
     </row>
-    <row r="408" hidden="1" spans="1:8">
+    <row r="408" spans="1:8">
       <c r="A408" s="67" t="s">
         <v>465</v>
       </c>
@@ -21226,7 +21226,7 @@
         <v>42581</v>
       </c>
     </row>
-    <row r="409" hidden="1" spans="1:8">
+    <row r="409" spans="1:8">
       <c r="A409" s="67" t="s">
         <v>465</v>
       </c>
@@ -21250,7 +21250,7 @@
         <v>42550</v>
       </c>
     </row>
-    <row r="410" hidden="1" spans="1:8">
+    <row r="410" spans="1:8">
       <c r="A410" s="67" t="s">
         <v>465</v>
       </c>
@@ -21275,7 +21275,7 @@
         <v>42480</v>
       </c>
     </row>
-    <row r="411" hidden="1" spans="1:8">
+    <row r="411" spans="1:8">
       <c r="A411" s="67" t="s">
         <v>465</v>
       </c>
@@ -21299,7 +21299,7 @@
         <v>42632</v>
       </c>
     </row>
-    <row r="412" hidden="1" spans="1:8">
+    <row r="412" spans="1:8">
       <c r="A412" s="67" t="s">
         <v>465</v>
       </c>
@@ -21323,7 +21323,7 @@
         <v>42772</v>
       </c>
     </row>
-    <row r="413" hidden="1" spans="1:8">
+    <row r="413" spans="1:8">
       <c r="A413" s="67" t="s">
         <v>465</v>
       </c>
@@ -21347,7 +21347,7 @@
         <v>42772</v>
       </c>
     </row>
-    <row r="414" hidden="1" spans="1:8">
+    <row r="414" spans="1:8">
       <c r="A414" s="67" t="s">
         <v>465</v>
       </c>
@@ -21371,7 +21371,7 @@
         <v>42830</v>
       </c>
     </row>
-    <row r="415" hidden="1" spans="1:8">
+    <row r="415" spans="1:8">
       <c r="A415" s="67" t="s">
         <v>465</v>
       </c>
@@ -21395,7 +21395,7 @@
         <v>42770</v>
       </c>
     </row>
-    <row r="416" hidden="1" spans="1:8">
+    <row r="416" spans="1:8">
       <c r="A416" s="67" t="s">
         <v>465</v>
       </c>
@@ -21419,7 +21419,7 @@
         <v>42792</v>
       </c>
     </row>
-    <row r="417" hidden="1" spans="1:8">
+    <row r="417" spans="1:8">
       <c r="A417" s="67" t="s">
         <v>465</v>
       </c>
@@ -21443,7 +21443,7 @@
         <v>42775</v>
       </c>
     </row>
-    <row r="418" hidden="1" spans="1:8">
+    <row r="418" spans="1:8">
       <c r="A418" s="67" t="s">
         <v>465</v>
       </c>
@@ -21494,7 +21494,7 @@
         <v>42878</v>
       </c>
     </row>
-    <row r="420" hidden="1" spans="1:8">
+    <row r="420" spans="1:8">
       <c r="A420" s="67" t="s">
         <v>465</v>
       </c>
@@ -21518,7 +21518,7 @@
         <v>42880</v>
       </c>
     </row>
-    <row r="421" hidden="1" spans="1:8">
+    <row r="421" spans="1:8">
       <c r="A421" s="67" t="s">
         <v>465</v>
       </c>
@@ -21542,7 +21542,7 @@
         <v>42884</v>
       </c>
     </row>
-    <row r="422" hidden="1" spans="1:8">
+    <row r="422" spans="1:8">
       <c r="A422" s="67" t="s">
         <v>465</v>
       </c>
@@ -21566,7 +21566,7 @@
         <v>42884</v>
       </c>
     </row>
-    <row r="423" hidden="1" spans="1:8">
+    <row r="423" spans="1:8">
       <c r="A423" s="67" t="s">
         <v>465</v>
       </c>
@@ -21590,7 +21590,7 @@
         <v>42884</v>
       </c>
     </row>
-    <row r="424" hidden="1" spans="1:8">
+    <row r="424" spans="1:8">
       <c r="A424" s="67" t="s">
         <v>465</v>
       </c>
@@ -21614,7 +21614,7 @@
         <v>42884</v>
       </c>
     </row>
-    <row r="425" hidden="1" spans="1:8">
+    <row r="425" spans="1:8">
       <c r="A425" s="67" t="s">
         <v>465</v>
       </c>
@@ -21638,7 +21638,7 @@
         <v>42899</v>
       </c>
     </row>
-    <row r="426" hidden="1" spans="1:8">
+    <row r="426" spans="1:8">
       <c r="A426" s="67" t="s">
         <v>465</v>
       </c>
@@ -21660,7 +21660,7 @@
         <v>42822</v>
       </c>
     </row>
-    <row r="427" hidden="1" spans="1:8">
+    <row r="427" spans="1:8">
       <c r="A427" s="67" t="s">
         <v>465</v>
       </c>
@@ -21712,7 +21712,7 @@
         <v>42787</v>
       </c>
     </row>
-    <row r="429" hidden="1" spans="1:8">
+    <row r="429" spans="1:8">
       <c r="A429" s="67" t="s">
         <v>465</v>
       </c>
@@ -21736,7 +21736,7 @@
         <v>42634</v>
       </c>
     </row>
-    <row r="430" hidden="1" spans="1:8">
+    <row r="430" spans="1:8">
       <c r="A430" s="67" t="s">
         <v>465</v>
       </c>
@@ -21760,7 +21760,7 @@
         <v>42550</v>
       </c>
     </row>
-    <row r="431" hidden="1" spans="1:8">
+    <row r="431" spans="1:8">
       <c r="A431" s="67" t="s">
         <v>465</v>
       </c>
@@ -21784,7 +21784,7 @@
         <v>42790</v>
       </c>
     </row>
-    <row r="432" hidden="1" spans="1:8">
+    <row r="432" spans="1:8">
       <c r="A432" s="67" t="s">
         <v>465</v>
       </c>
@@ -21808,7 +21808,7 @@
         <v>42852</v>
       </c>
     </row>
-    <row r="433" hidden="1" spans="1:8">
+    <row r="433" spans="1:8">
       <c r="A433" s="67" t="s">
         <v>465</v>
       </c>
@@ -21859,7 +21859,7 @@
         <v>42439</v>
       </c>
     </row>
-    <row r="435" hidden="1" spans="1:8">
+    <row r="435" spans="1:8">
       <c r="A435" s="67" t="s">
         <v>465</v>
       </c>
@@ -21883,7 +21883,7 @@
         <v>42601</v>
       </c>
     </row>
-    <row r="436" hidden="1" spans="1:8">
+    <row r="436" spans="1:8">
       <c r="A436" s="67" t="s">
         <v>465</v>
       </c>
@@ -21907,7 +21907,7 @@
         <v>42501</v>
       </c>
     </row>
-    <row r="437" hidden="1" spans="1:8">
+    <row r="437" spans="1:8">
       <c r="A437" s="67" t="s">
         <v>465</v>
       </c>
@@ -21931,7 +21931,7 @@
         <v>42831</v>
       </c>
     </row>
-    <row r="438" hidden="1" spans="1:8">
+    <row r="438" spans="1:8">
       <c r="A438" s="67" t="s">
         <v>465</v>
       </c>
@@ -21955,7 +21955,7 @@
         <v>42842</v>
       </c>
     </row>
-    <row r="439" hidden="1" spans="1:8">
+    <row r="439" spans="1:8">
       <c r="A439" s="67" t="s">
         <v>465</v>
       </c>
@@ -21979,7 +21979,7 @@
         <v>42421</v>
       </c>
     </row>
-    <row r="440" hidden="1" spans="1:8">
+    <row r="440" spans="1:8">
       <c r="A440" s="67" t="s">
         <v>465</v>
       </c>
@@ -22003,7 +22003,7 @@
         <v>42772</v>
       </c>
     </row>
-    <row r="441" hidden="1" spans="1:8">
+    <row r="441" spans="1:8">
       <c r="A441" s="67" t="s">
         <v>465</v>
       </c>
@@ -22027,7 +22027,7 @@
         <v>42801</v>
       </c>
     </row>
-    <row r="442" hidden="1" spans="1:8">
+    <row r="442" spans="1:8">
       <c r="A442" s="67" t="s">
         <v>465</v>
       </c>
@@ -22051,7 +22051,7 @@
         <v>42776</v>
       </c>
     </row>
-    <row r="443" hidden="1" spans="1:8">
+    <row r="443" spans="1:8">
       <c r="A443" s="67" t="s">
         <v>465</v>
       </c>
@@ -22075,7 +22075,7 @@
         <v>42446</v>
       </c>
     </row>
-    <row r="444" hidden="1" spans="1:8">
+    <row r="444" spans="1:8">
       <c r="A444" s="67" t="s">
         <v>465</v>
       </c>
@@ -22099,7 +22099,7 @@
         <v>42850</v>
       </c>
     </row>
-    <row r="445" hidden="1" spans="1:8">
+    <row r="445" spans="1:8">
       <c r="A445" s="67" t="s">
         <v>465</v>
       </c>
@@ -22123,7 +22123,7 @@
         <v>42884</v>
       </c>
     </row>
-    <row r="446" hidden="1" spans="1:8">
+    <row r="446" spans="1:8">
       <c r="A446" s="67" t="s">
         <v>465</v>
       </c>
@@ -22131,7 +22131,7 @@
         <v>445</v>
       </c>
       <c r="C446" s="12" t="str">
-        <f>D446&amp;F446</f>
+        <f t="shared" ref="C446:C448" si="1">D446&amp;F446</f>
         <v>二季店</v>
       </c>
       <c r="D446" s="15" t="s">
@@ -22148,7 +22148,7 @@
         <v>42618</v>
       </c>
     </row>
-    <row r="447" hidden="1" spans="1:8">
+    <row r="447" spans="1:8">
       <c r="A447" s="67" t="s">
         <v>465</v>
       </c>
@@ -22156,7 +22156,7 @@
         <v>446</v>
       </c>
       <c r="C447" s="12" t="str">
-        <f>D447&amp;F447</f>
+        <f t="shared" si="1"/>
         <v>二季店</v>
       </c>
       <c r="D447" s="15" t="s">
@@ -22181,7 +22181,7 @@
         <v>447</v>
       </c>
       <c r="C448" s="12" t="str">
-        <f>D448&amp;F448</f>
+        <f t="shared" si="1"/>
         <v>二季店A</v>
       </c>
       <c r="D448" s="18" t="s">
@@ -22200,7 +22200,7 @@
         <v>42908</v>
       </c>
     </row>
-    <row r="449" hidden="1" spans="1:8">
+    <row r="449" spans="1:8">
       <c r="A449" s="67" t="s">
         <v>465</v>
       </c>
@@ -22224,7 +22224,7 @@
         <v>42908</v>
       </c>
     </row>
-    <row r="450" hidden="1" spans="1:8">
+    <row r="450" spans="1:8">
       <c r="A450" s="69" t="s">
         <v>534</v>
       </c>
@@ -22249,7 +22249,7 @@
         <v>42201</v>
       </c>
     </row>
-    <row r="451" hidden="1" spans="1:8">
+    <row r="451" spans="1:8">
       <c r="A451" s="69" t="s">
         <v>534</v>
       </c>
@@ -22271,7 +22271,7 @@
         <v>42790</v>
       </c>
     </row>
-    <row r="452" hidden="1" spans="1:8">
+    <row r="452" spans="1:8">
       <c r="A452" s="69" t="s">
         <v>534</v>
       </c>
@@ -22295,7 +22295,7 @@
         <v>42805</v>
       </c>
     </row>
-    <row r="453" hidden="1" spans="1:8">
+    <row r="453" spans="1:8">
       <c r="A453" s="69" t="s">
         <v>534</v>
       </c>
@@ -22319,7 +22319,7 @@
         <v>42811</v>
       </c>
     </row>
-    <row r="454" hidden="1" spans="1:8">
+    <row r="454" spans="1:8">
       <c r="A454" s="69" t="s">
         <v>534</v>
       </c>
@@ -22343,7 +22343,7 @@
         <v>42811</v>
       </c>
     </row>
-    <row r="455" hidden="1" spans="1:8">
+    <row r="455" spans="1:8">
       <c r="A455" s="69" t="s">
         <v>534</v>
       </c>
@@ -22394,7 +22394,7 @@
         <v>42261</v>
       </c>
     </row>
-    <row r="457" hidden="1" spans="1:8">
+    <row r="457" spans="1:8">
       <c r="A457" s="69" t="s">
         <v>534</v>
       </c>
@@ -22418,7 +22418,7 @@
         <v>42580</v>
       </c>
     </row>
-    <row r="458" hidden="1" spans="1:8">
+    <row r="458" spans="1:8">
       <c r="A458" s="69" t="s">
         <v>534</v>
       </c>
@@ -22442,7 +22442,7 @@
         <v>42704</v>
       </c>
     </row>
-    <row r="459" hidden="1" spans="1:8">
+    <row r="459" spans="1:8">
       <c r="A459" s="69" t="s">
         <v>534</v>
       </c>
@@ -22466,7 +22466,7 @@
         <v>42615</v>
       </c>
     </row>
-    <row r="460" hidden="1" spans="1:8">
+    <row r="460" spans="1:8">
       <c r="A460" s="69" t="s">
         <v>534</v>
       </c>
@@ -22490,7 +22490,7 @@
         <v>42788</v>
       </c>
     </row>
-    <row r="461" hidden="1" spans="1:8">
+    <row r="461" spans="1:8">
       <c r="A461" s="69" t="s">
         <v>534</v>
       </c>
@@ -22514,7 +22514,7 @@
         <v>42808</v>
       </c>
     </row>
-    <row r="462" hidden="1" spans="1:8">
+    <row r="462" spans="1:8">
       <c r="A462" s="69" t="s">
         <v>534</v>
       </c>
@@ -22538,7 +22538,7 @@
         <v>42461</v>
       </c>
     </row>
-    <row r="463" hidden="1" spans="1:8">
+    <row r="463" spans="1:8">
       <c r="A463" s="69" t="s">
         <v>534</v>
       </c>
@@ -22562,7 +22562,7 @@
         <v>42849</v>
       </c>
     </row>
-    <row r="464" hidden="1" spans="1:8">
+    <row r="464" spans="1:8">
       <c r="A464" s="69" t="s">
         <v>534</v>
       </c>
@@ -22614,7 +22614,7 @@
         <v>42268</v>
       </c>
     </row>
-    <row r="466" hidden="1" spans="1:8">
+    <row r="466" spans="1:8">
       <c r="A466" s="69" t="s">
         <v>534</v>
       </c>
@@ -22638,7 +22638,7 @@
         <v>42236</v>
       </c>
     </row>
-    <row r="467" hidden="1" spans="1:8">
+    <row r="467" spans="1:8">
       <c r="A467" s="69" t="s">
         <v>534</v>
       </c>
@@ -22662,7 +22662,7 @@
         <v>42604</v>
       </c>
     </row>
-    <row r="468" hidden="1" spans="1:8">
+    <row r="468" spans="1:8">
       <c r="A468" s="69" t="s">
         <v>534</v>
       </c>
@@ -22686,7 +22686,7 @@
         <v>42835</v>
       </c>
     </row>
-    <row r="469" hidden="1" spans="1:8">
+    <row r="469" spans="1:8">
       <c r="A469" s="69" t="s">
         <v>534</v>
       </c>
@@ -22710,7 +22710,7 @@
         <v>42845</v>
       </c>
     </row>
-    <row r="470" hidden="1" spans="1:8">
+    <row r="470" spans="1:8">
       <c r="A470" s="69" t="s">
         <v>534</v>
       </c>
@@ -22734,7 +22734,7 @@
         <v>42857</v>
       </c>
     </row>
-    <row r="471" hidden="1" spans="1:8">
+    <row r="471" spans="1:8">
       <c r="A471" s="69" t="s">
         <v>534</v>
       </c>
@@ -22758,7 +22758,7 @@
         <v>42261</v>
       </c>
     </row>
-    <row r="472" hidden="1" spans="1:8">
+    <row r="472" spans="1:8">
       <c r="A472" s="69" t="s">
         <v>534</v>
       </c>
@@ -22782,7 +22782,7 @@
         <v>42467</v>
       </c>
     </row>
-    <row r="473" hidden="1" spans="1:8">
+    <row r="473" spans="1:8">
       <c r="A473" s="69" t="s">
         <v>534</v>
       </c>
@@ -22806,7 +22806,7 @@
         <v>42620</v>
       </c>
     </row>
-    <row r="474" hidden="1" spans="1:8">
+    <row r="474" spans="1:8">
       <c r="A474" s="69" t="s">
         <v>534</v>
       </c>
@@ -22830,7 +22830,7 @@
         <v>42438</v>
       </c>
     </row>
-    <row r="475" hidden="1" spans="1:8">
+    <row r="475" spans="1:8">
       <c r="A475" s="69" t="s">
         <v>534</v>
       </c>
@@ -22854,7 +22854,7 @@
         <v>42867</v>
       </c>
     </row>
-    <row r="476" hidden="1" spans="1:8">
+    <row r="476" spans="1:8">
       <c r="A476" s="69" t="s">
         <v>534</v>
       </c>
@@ -22879,7 +22879,7 @@
         <v>42583</v>
       </c>
     </row>
-    <row r="477" hidden="1" spans="1:8">
+    <row r="477" spans="1:8">
       <c r="A477" s="69" t="s">
         <v>534</v>
       </c>
@@ -22928,7 +22928,7 @@
         <v>42678</v>
       </c>
     </row>
-    <row r="479" hidden="1" spans="1:8">
+    <row r="479" spans="1:8">
       <c r="A479" s="69" t="s">
         <v>534</v>
       </c>
@@ -22952,7 +22952,7 @@
         <v>42692</v>
       </c>
     </row>
-    <row r="480" hidden="1" spans="1:8">
+    <row r="480" spans="1:8">
       <c r="A480" s="69" t="s">
         <v>534</v>
       </c>
@@ -22976,7 +22976,7 @@
         <v>42604</v>
       </c>
     </row>
-    <row r="481" hidden="1" spans="1:8">
+    <row r="481" spans="1:8">
       <c r="A481" s="69" t="s">
         <v>534</v>
       </c>
@@ -23000,7 +23000,7 @@
         <v>42818</v>
       </c>
     </row>
-    <row r="482" hidden="1" spans="1:8">
+    <row r="482" spans="1:8">
       <c r="A482" s="69" t="s">
         <v>534</v>
       </c>
@@ -23024,7 +23024,7 @@
         <v>42841</v>
       </c>
     </row>
-    <row r="483" hidden="1" spans="1:8">
+    <row r="483" spans="1:8">
       <c r="A483" s="69" t="s">
         <v>534</v>
       </c>
@@ -23048,7 +23048,7 @@
         <v>42852</v>
       </c>
     </row>
-    <row r="484" hidden="1" spans="1:8">
+    <row r="484" spans="1:8">
       <c r="A484" s="69" t="s">
         <v>534</v>
       </c>
@@ -23099,7 +23099,7 @@
         <v>42786</v>
       </c>
     </row>
-    <row r="486" hidden="1" spans="1:8">
+    <row r="486" spans="1:8">
       <c r="A486" s="69" t="s">
         <v>534</v>
       </c>
@@ -23123,7 +23123,7 @@
         <v>42599</v>
       </c>
     </row>
-    <row r="487" hidden="1" spans="1:8">
+    <row r="487" spans="1:8">
       <c r="A487" s="69" t="s">
         <v>534</v>
       </c>
@@ -23147,7 +23147,7 @@
         <v>42848</v>
       </c>
     </row>
-    <row r="488" hidden="1" spans="1:8">
+    <row r="488" spans="1:8">
       <c r="A488" s="69" t="s">
         <v>534</v>
       </c>
@@ -23171,7 +23171,7 @@
         <v>42854</v>
       </c>
     </row>
-    <row r="489" hidden="1" spans="1:8">
+    <row r="489" spans="1:8">
       <c r="A489" s="69" t="s">
         <v>534</v>
       </c>
@@ -23195,7 +23195,7 @@
         <v>42861</v>
       </c>
     </row>
-    <row r="490" hidden="1" spans="1:8">
+    <row r="490" spans="1:8">
       <c r="A490" s="69" t="s">
         <v>534</v>
       </c>
@@ -23219,7 +23219,7 @@
         <v>42871</v>
       </c>
     </row>
-    <row r="491" hidden="1" spans="1:8">
+    <row r="491" spans="1:8">
       <c r="A491" s="69" t="s">
         <v>534</v>
       </c>
@@ -23243,7 +23243,7 @@
         <v>42709</v>
       </c>
     </row>
-    <row r="492" hidden="1" spans="1:8">
+    <row r="492" spans="1:8">
       <c r="A492" s="69" t="s">
         <v>534</v>
       </c>
@@ -23295,7 +23295,7 @@
         <v>42779</v>
       </c>
     </row>
-    <row r="494" hidden="1" spans="1:8">
+    <row r="494" spans="1:8">
       <c r="A494" s="69" t="s">
         <v>534</v>
       </c>
@@ -23319,7 +23319,7 @@
         <v>42670</v>
       </c>
     </row>
-    <row r="495" hidden="1" spans="1:8">
+    <row r="495" spans="1:8">
       <c r="A495" s="69" t="s">
         <v>534</v>
       </c>
@@ -23343,7 +23343,7 @@
         <v>42796</v>
       </c>
     </row>
-    <row r="496" hidden="1" spans="1:8">
+    <row r="496" spans="1:8">
       <c r="A496" s="69" t="s">
         <v>534</v>
       </c>
@@ -23367,7 +23367,7 @@
         <v>42812</v>
       </c>
     </row>
-    <row r="497" hidden="1" spans="1:8">
+    <row r="497" spans="1:8">
       <c r="A497" s="69" t="s">
         <v>534</v>
       </c>
@@ -23391,7 +23391,7 @@
         <v>42863</v>
       </c>
     </row>
-    <row r="498" hidden="1" spans="1:8">
+    <row r="498" spans="1:8">
       <c r="A498" s="69" t="s">
         <v>534</v>
       </c>
@@ -23415,7 +23415,7 @@
         <v>42864</v>
       </c>
     </row>
-    <row r="499" hidden="1" spans="1:8">
+    <row r="499" spans="1:8">
       <c r="A499" s="69" t="s">
         <v>534</v>
       </c>
@@ -23439,7 +23439,7 @@
         <v>42780</v>
       </c>
     </row>
-    <row r="500" hidden="1" spans="1:8">
+    <row r="500" spans="1:8">
       <c r="A500" s="69" t="s">
         <v>534</v>
       </c>
@@ -23463,7 +23463,7 @@
         <v>42670</v>
       </c>
     </row>
-    <row r="501" hidden="1" spans="1:8">
+    <row r="501" spans="1:8">
       <c r="A501" s="69" t="s">
         <v>534</v>
       </c>
@@ -23487,7 +23487,7 @@
         <v>42845</v>
       </c>
     </row>
-    <row r="502" hidden="1" spans="1:8">
+    <row r="502" spans="1:8">
       <c r="A502" s="77" t="s">
         <v>591</v>
       </c>
@@ -23512,7 +23512,7 @@
         <v>42210</v>
       </c>
     </row>
-    <row r="503" hidden="1" spans="1:8">
+    <row r="503" spans="1:8">
       <c r="A503" s="77" t="s">
         <v>591</v>
       </c>
@@ -23534,7 +23534,7 @@
         <v>42863</v>
       </c>
     </row>
-    <row r="504" hidden="1" spans="1:8">
+    <row r="504" spans="1:8">
       <c r="A504" s="77" t="s">
         <v>591</v>
       </c>
@@ -23558,7 +23558,7 @@
         <v>42315</v>
       </c>
     </row>
-    <row r="505" hidden="1" spans="1:8">
+    <row r="505" spans="1:8">
       <c r="A505" s="77" t="s">
         <v>591</v>
       </c>
@@ -23582,7 +23582,7 @@
         <v>42582</v>
       </c>
     </row>
-    <row r="506" hidden="1" spans="1:8">
+    <row r="506" spans="1:8">
       <c r="A506" s="77" t="s">
         <v>591</v>
       </c>
@@ -23606,7 +23606,7 @@
         <v>42662</v>
       </c>
     </row>
-    <row r="507" hidden="1" spans="1:8">
+    <row r="507" spans="1:8">
       <c r="A507" s="77" t="s">
         <v>591</v>
       </c>
@@ -23630,7 +23630,7 @@
         <v>42417</v>
       </c>
     </row>
-    <row r="508" hidden="1" spans="1:8">
+    <row r="508" spans="1:8">
       <c r="A508" s="77" t="s">
         <v>591</v>
       </c>
@@ -23654,7 +23654,7 @@
         <v>42817</v>
       </c>
     </row>
-    <row r="509" hidden="1" spans="1:8">
+    <row r="509" spans="1:8">
       <c r="A509" s="77" t="s">
         <v>591</v>
       </c>
@@ -23678,7 +23678,7 @@
         <v>42819</v>
       </c>
     </row>
-    <row r="510" hidden="1" spans="1:8">
+    <row r="510" spans="1:8">
       <c r="A510" s="77" t="s">
         <v>591</v>
       </c>
@@ -23702,7 +23702,7 @@
         <v>42226</v>
       </c>
     </row>
-    <row r="511" hidden="1" spans="1:8">
+    <row r="511" spans="1:8">
       <c r="A511" s="77" t="s">
         <v>591</v>
       </c>
@@ -23726,7 +23726,7 @@
         <v>42583</v>
       </c>
     </row>
-    <row r="512" hidden="1" spans="1:8">
+    <row r="512" spans="1:8">
       <c r="A512" s="77" t="s">
         <v>591</v>
       </c>
@@ -23750,7 +23750,7 @@
         <v>42601</v>
       </c>
     </row>
-    <row r="513" hidden="1" spans="1:8">
+    <row r="513" spans="1:8">
       <c r="A513" s="77" t="s">
         <v>591</v>
       </c>
@@ -23774,7 +23774,7 @@
         <v>42859</v>
       </c>
     </row>
-    <row r="514" hidden="1" spans="1:8">
+    <row r="514" spans="1:8">
       <c r="A514" s="77" t="s">
         <v>591</v>
       </c>
@@ -23798,7 +23798,7 @@
         <v>42859</v>
       </c>
     </row>
-    <row r="515" hidden="1" spans="1:8">
+    <row r="515" spans="1:8">
       <c r="A515" s="77" t="s">
         <v>591</v>
       </c>
@@ -23822,7 +23822,7 @@
         <v>42870</v>
       </c>
     </row>
-    <row r="516" hidden="1" spans="1:8">
+    <row r="516" spans="1:8">
       <c r="A516" s="77" t="s">
         <v>591</v>
       </c>
@@ -23846,7 +23846,7 @@
         <v>42433</v>
       </c>
     </row>
-    <row r="517" hidden="1" spans="1:8">
+    <row r="517" spans="1:8">
       <c r="A517" s="77" t="s">
         <v>591</v>
       </c>
@@ -23870,7 +23870,7 @@
         <v>42430</v>
       </c>
     </row>
-    <row r="518" hidden="1" spans="1:8">
+    <row r="518" spans="1:8">
       <c r="A518" s="77" t="s">
         <v>591</v>
       </c>
@@ -23894,7 +23894,7 @@
         <v>42662</v>
       </c>
     </row>
-    <row r="519" hidden="1" spans="1:8">
+    <row r="519" spans="1:8">
       <c r="A519" s="77" t="s">
         <v>591</v>
       </c>
@@ -23918,7 +23918,7 @@
         <v>42808</v>
       </c>
     </row>
-    <row r="520" hidden="1" spans="1:8">
+    <row r="520" spans="1:8">
       <c r="A520" s="77" t="s">
         <v>591</v>
       </c>
@@ -23969,7 +23969,7 @@
         <v>42226</v>
       </c>
     </row>
-    <row r="522" hidden="1" spans="1:8">
+    <row r="522" spans="1:8">
       <c r="A522" s="77" t="s">
         <v>591</v>
       </c>
@@ -23993,7 +23993,7 @@
         <v>42783</v>
       </c>
     </row>
-    <row r="523" hidden="1" spans="1:8">
+    <row r="523" spans="1:8">
       <c r="A523" s="77" t="s">
         <v>591</v>
       </c>
@@ -24017,7 +24017,7 @@
         <v>42784</v>
       </c>
     </row>
-    <row r="524" hidden="1" spans="1:8">
+    <row r="524" spans="1:8">
       <c r="A524" s="77" t="s">
         <v>591</v>
       </c>
@@ -24041,7 +24041,7 @@
         <v>42784</v>
       </c>
     </row>
-    <row r="525" hidden="1" spans="1:8">
+    <row r="525" spans="1:8">
       <c r="A525" s="77" t="s">
         <v>591</v>
       </c>
@@ -24065,7 +24065,7 @@
         <v>42805</v>
       </c>
     </row>
-    <row r="526" hidden="1" spans="1:8">
+    <row r="526" spans="1:8">
       <c r="A526" s="77" t="s">
         <v>591</v>
       </c>
@@ -24089,7 +24089,7 @@
         <v>42808</v>
       </c>
     </row>
-    <row r="527" hidden="1" spans="1:8">
+    <row r="527" spans="1:8">
       <c r="A527" s="77" t="s">
         <v>591</v>
       </c>
@@ -24113,7 +24113,7 @@
         <v>42825</v>
       </c>
     </row>
-    <row r="528" hidden="1" spans="1:8">
+    <row r="528" spans="1:8">
       <c r="A528" s="77" t="s">
         <v>591</v>
       </c>
@@ -24137,7 +24137,7 @@
         <v>42861</v>
       </c>
     </row>
-    <row r="529" hidden="1" spans="1:8">
+    <row r="529" spans="1:8">
       <c r="A529" s="77" t="s">
         <v>591</v>
       </c>
@@ -24161,7 +24161,7 @@
         <v>42883</v>
       </c>
     </row>
-    <row r="530" hidden="1" spans="1:8">
+    <row r="530" spans="1:8">
       <c r="A530" s="77" t="s">
         <v>591</v>
       </c>
@@ -24186,7 +24186,7 @@
         <v>42170</v>
       </c>
     </row>
-    <row r="531" hidden="1" spans="1:8">
+    <row r="531" spans="1:8">
       <c r="A531" s="77" t="s">
         <v>591</v>
       </c>
@@ -24208,7 +24208,7 @@
         <v>42631</v>
       </c>
     </row>
-    <row r="532" hidden="1" spans="1:8">
+    <row r="532" spans="1:8">
       <c r="A532" s="77" t="s">
         <v>591</v>
       </c>
@@ -24232,7 +24232,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="533" hidden="1" spans="1:8">
+    <row r="533" spans="1:8">
       <c r="A533" s="77" t="s">
         <v>591</v>
       </c>
@@ -24256,7 +24256,7 @@
         <v>42769</v>
       </c>
     </row>
-    <row r="534" hidden="1" spans="1:8">
+    <row r="534" spans="1:8">
       <c r="A534" s="77" t="s">
         <v>591</v>
       </c>
@@ -24280,7 +24280,7 @@
         <v>42776</v>
       </c>
     </row>
-    <row r="535" hidden="1" spans="1:8">
+    <row r="535" spans="1:8">
       <c r="A535" s="77" t="s">
         <v>591</v>
       </c>
@@ -24304,7 +24304,7 @@
         <v>42706</v>
       </c>
     </row>
-    <row r="536" hidden="1" spans="1:8">
+    <row r="536" spans="1:8">
       <c r="A536" s="77" t="s">
         <v>591</v>
       </c>
@@ -24328,7 +24328,7 @@
         <v>42833</v>
       </c>
     </row>
-    <row r="537" hidden="1" spans="1:8">
+    <row r="537" spans="1:8">
       <c r="A537" s="77" t="s">
         <v>591</v>
       </c>
@@ -24352,7 +24352,7 @@
         <v>42864</v>
       </c>
     </row>
-    <row r="538" hidden="1" spans="1:8">
+    <row r="538" spans="1:8">
       <c r="A538" s="77" t="s">
         <v>591</v>
       </c>
@@ -24376,7 +24376,7 @@
         <v>42784</v>
       </c>
     </row>
-    <row r="539" hidden="1" spans="1:8">
+    <row r="539" spans="1:8">
       <c r="A539" s="77" t="s">
         <v>591</v>
       </c>
@@ -24400,7 +24400,7 @@
         <v>42509</v>
       </c>
     </row>
-    <row r="540" hidden="1" spans="1:8">
+    <row r="540" spans="1:8">
       <c r="A540" s="77" t="s">
         <v>591</v>
       </c>
@@ -24424,7 +24424,7 @@
         <v>42780</v>
       </c>
     </row>
-    <row r="541" hidden="1" spans="1:8">
+    <row r="541" spans="1:8">
       <c r="A541" s="77" t="s">
         <v>591</v>
       </c>
@@ -24448,7 +24448,7 @@
         <v>42531</v>
       </c>
     </row>
-    <row r="542" hidden="1" spans="1:8">
+    <row r="542" spans="1:8">
       <c r="A542" s="77" t="s">
         <v>591</v>
       </c>
@@ -24472,7 +24472,7 @@
         <v>42594</v>
       </c>
     </row>
-    <row r="543" hidden="1" spans="1:8">
+    <row r="543" spans="1:8">
       <c r="A543" s="77" t="s">
         <v>591</v>
       </c>
@@ -24496,7 +24496,7 @@
         <v>42779</v>
       </c>
     </row>
-    <row r="544" hidden="1" spans="1:8">
+    <row r="544" spans="1:8">
       <c r="A544" s="77" t="s">
         <v>591</v>
       </c>
@@ -24520,7 +24520,7 @@
         <v>42831</v>
       </c>
     </row>
-    <row r="545" hidden="1" spans="1:8">
+    <row r="545" spans="1:8">
       <c r="A545" s="77" t="s">
         <v>591</v>
       </c>
@@ -24544,7 +24544,7 @@
         <v>42872</v>
       </c>
     </row>
-    <row r="546" hidden="1" spans="1:8">
+    <row r="546" spans="1:8">
       <c r="A546" s="77" t="s">
         <v>591</v>
       </c>
@@ -24568,7 +24568,7 @@
         <v>42818</v>
       </c>
     </row>
-    <row r="547" hidden="1" spans="1:8">
+    <row r="547" spans="1:8">
       <c r="A547" s="77" t="s">
         <v>591</v>
       </c>
@@ -24592,7 +24592,7 @@
         <v>42772</v>
       </c>
     </row>
-    <row r="548" hidden="1" spans="1:8">
+    <row r="548" spans="1:8">
       <c r="A548" s="77" t="s">
         <v>591</v>
       </c>
@@ -24616,7 +24616,7 @@
         <v>42901</v>
       </c>
     </row>
-    <row r="549" hidden="1" spans="1:8">
+    <row r="549" spans="1:8">
       <c r="A549" s="77" t="s">
         <v>591</v>
       </c>
@@ -24640,7 +24640,7 @@
         <v>42646</v>
       </c>
     </row>
-    <row r="550" hidden="1" spans="1:8">
+    <row r="550" spans="1:8">
       <c r="A550" s="77" t="s">
         <v>591</v>
       </c>
@@ -24664,7 +24664,7 @@
         <v>42716</v>
       </c>
     </row>
-    <row r="551" hidden="1" spans="1:8">
+    <row r="551" spans="1:8">
       <c r="A551" s="77" t="s">
         <v>591</v>
       </c>
@@ -24688,7 +24688,7 @@
         <v>42777</v>
       </c>
     </row>
-    <row r="552" hidden="1" spans="1:8">
+    <row r="552" spans="1:8">
       <c r="A552" s="77" t="s">
         <v>591</v>
       </c>
@@ -24712,7 +24712,7 @@
         <v>42774</v>
       </c>
     </row>
-    <row r="553" hidden="1" spans="1:8">
+    <row r="553" spans="1:8">
       <c r="A553" s="77" t="s">
         <v>591</v>
       </c>
@@ -24736,7 +24736,7 @@
         <v>42814</v>
       </c>
     </row>
-    <row r="554" hidden="1" spans="1:8">
+    <row r="554" spans="1:8">
       <c r="A554" s="77" t="s">
         <v>591</v>
       </c>
@@ -24760,7 +24760,7 @@
         <v>42832</v>
       </c>
     </row>
-    <row r="555" hidden="1" spans="1:8">
+    <row r="555" spans="1:8">
       <c r="A555" s="77" t="s">
         <v>591</v>
       </c>
@@ -24784,7 +24784,7 @@
         <v>42839</v>
       </c>
     </row>
-    <row r="556" hidden="1" spans="1:8">
+    <row r="556" spans="1:8">
       <c r="A556" s="77" t="s">
         <v>591</v>
       </c>
@@ -24809,7 +24809,7 @@
         <v>42289</v>
       </c>
     </row>
-    <row r="557" hidden="1" spans="1:8">
+    <row r="557" spans="1:8">
       <c r="A557" s="77" t="s">
         <v>591</v>
       </c>
@@ -24831,7 +24831,7 @@
         <v>42839</v>
       </c>
     </row>
-    <row r="558" hidden="1" spans="1:8">
+    <row r="558" spans="1:8">
       <c r="A558" s="77" t="s">
         <v>591</v>
       </c>
@@ -24855,7 +24855,7 @@
         <v>42436</v>
       </c>
     </row>
-    <row r="559" hidden="1" spans="1:8">
+    <row r="559" spans="1:8">
       <c r="A559" s="77" t="s">
         <v>591</v>
       </c>
@@ -24879,7 +24879,7 @@
         <v>42443</v>
       </c>
     </row>
-    <row r="560" hidden="1" spans="1:8">
+    <row r="560" spans="1:8">
       <c r="A560" s="77" t="s">
         <v>591</v>
       </c>
@@ -24903,7 +24903,7 @@
         <v>42813</v>
       </c>
     </row>
-    <row r="561" hidden="1" spans="1:8">
+    <row r="561" spans="1:8">
       <c r="A561" s="77" t="s">
         <v>591</v>
       </c>
@@ -24927,7 +24927,7 @@
         <v>42908</v>
       </c>
     </row>
-    <row r="562" hidden="1" spans="1:8">
+    <row r="562" spans="1:8">
       <c r="A562" s="77" t="s">
         <v>591</v>
       </c>
@@ -24951,7 +24951,7 @@
         <v>42263</v>
       </c>
     </row>
-    <row r="563" hidden="1" spans="1:8">
+    <row r="563" spans="1:8">
       <c r="A563" s="77" t="s">
         <v>591</v>
       </c>
@@ -24975,7 +24975,7 @@
         <v>42662</v>
       </c>
     </row>
-    <row r="564" hidden="1" spans="1:8">
+    <row r="564" spans="1:8">
       <c r="A564" s="77" t="s">
         <v>591</v>
       </c>
@@ -24999,7 +24999,7 @@
         <v>42864</v>
       </c>
     </row>
-    <row r="565" hidden="1" spans="1:8">
+    <row r="565" spans="1:8">
       <c r="A565" s="77" t="s">
         <v>591</v>
       </c>
@@ -25023,7 +25023,7 @@
         <v>42796</v>
       </c>
     </row>
-    <row r="566" hidden="1" spans="1:8">
+    <row r="566" spans="1:8">
       <c r="A566" s="77" t="s">
         <v>591</v>
       </c>
@@ -25047,7 +25047,7 @@
         <v>42552</v>
       </c>
     </row>
-    <row r="567" hidden="1" spans="1:8">
+    <row r="567" spans="1:8">
       <c r="A567" s="77" t="s">
         <v>591</v>
       </c>
@@ -25071,7 +25071,7 @@
         <v>42795</v>
       </c>
     </row>
-    <row r="568" hidden="1" spans="1:8">
+    <row r="568" spans="1:8">
       <c r="A568" s="77" t="s">
         <v>591</v>
       </c>
@@ -25095,7 +25095,7 @@
         <v>42805</v>
       </c>
     </row>
-    <row r="569" hidden="1" spans="1:8">
+    <row r="569" spans="1:8">
       <c r="A569" s="77" t="s">
         <v>591</v>
       </c>
@@ -25119,7 +25119,7 @@
         <v>42648</v>
       </c>
     </row>
-    <row r="570" hidden="1" spans="1:8">
+    <row r="570" spans="1:8">
       <c r="A570" s="77" t="s">
         <v>591</v>
       </c>
@@ -25143,7 +25143,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="571" hidden="1" spans="1:8">
+    <row r="571" spans="1:8">
       <c r="A571" s="77" t="s">
         <v>591</v>
       </c>
@@ -25192,7 +25192,7 @@
         <v>42771</v>
       </c>
     </row>
-    <row r="573" hidden="1" spans="1:8">
+    <row r="573" spans="1:8">
       <c r="A573" s="77" t="s">
         <v>591</v>
       </c>
@@ -25216,7 +25216,7 @@
         <v>42856</v>
       </c>
     </row>
-    <row r="574" hidden="1" spans="1:8">
+    <row r="574" spans="1:8">
       <c r="A574" s="77" t="s">
         <v>591</v>
       </c>
@@ -25240,7 +25240,7 @@
         <v>42856</v>
       </c>
     </row>
-    <row r="575" hidden="1" spans="1:8">
+    <row r="575" spans="1:8">
       <c r="A575" s="77" t="s">
         <v>591</v>
       </c>
@@ -25264,7 +25264,7 @@
         <v>42880</v>
       </c>
     </row>
-    <row r="576" hidden="1" spans="1:8">
+    <row r="576" spans="1:8">
       <c r="A576" s="77" t="s">
         <v>591</v>
       </c>
@@ -25288,7 +25288,7 @@
         <v>42885</v>
       </c>
     </row>
-    <row r="577" hidden="1" spans="1:8">
+    <row r="577" spans="1:8">
       <c r="A577" s="77" t="s">
         <v>591</v>
       </c>
@@ -25312,7 +25312,7 @@
         <v>42885</v>
       </c>
     </row>
-    <row r="578" hidden="1" spans="1:8">
+    <row r="578" spans="1:8">
       <c r="A578" s="77" t="s">
         <v>591</v>
       </c>
@@ -25363,7 +25363,7 @@
         <v>42669</v>
       </c>
     </row>
-    <row r="580" hidden="1" spans="1:8">
+    <row r="580" spans="1:8">
       <c r="A580" s="77" t="s">
         <v>591</v>
       </c>
@@ -25387,7 +25387,7 @@
         <v>42681</v>
       </c>
     </row>
-    <row r="581" hidden="1" spans="1:8">
+    <row r="581" spans="1:8">
       <c r="A581" s="77" t="s">
         <v>591</v>
       </c>
@@ -25411,7 +25411,7 @@
         <v>42676</v>
       </c>
     </row>
-    <row r="582" hidden="1" spans="1:8">
+    <row r="582" spans="1:8">
       <c r="A582" s="77" t="s">
         <v>591</v>
       </c>
@@ -25462,7 +25462,7 @@
         <v>42669</v>
       </c>
     </row>
-    <row r="584" hidden="1" spans="1:8">
+    <row r="584" spans="1:8">
       <c r="A584" s="77" t="s">
         <v>591</v>
       </c>
@@ -25486,7 +25486,7 @@
         <v>42669</v>
       </c>
     </row>
-    <row r="585" hidden="1" spans="1:8">
+    <row r="585" spans="1:8">
       <c r="A585" s="77" t="s">
         <v>591</v>
       </c>
@@ -25510,7 +25510,7 @@
         <v>42801</v>
       </c>
     </row>
-    <row r="586" hidden="1" spans="1:8">
+    <row r="586" spans="1:8">
       <c r="A586" s="77" t="s">
         <v>591</v>
       </c>
@@ -25534,7 +25534,7 @@
         <v>42669</v>
       </c>
     </row>
-    <row r="587" hidden="1" spans="1:8">
+    <row r="587" spans="1:8">
       <c r="A587" s="77" t="s">
         <v>591</v>
       </c>
@@ -25558,7 +25558,7 @@
         <v>42801</v>
       </c>
     </row>
-    <row r="588" hidden="1" spans="1:8">
+    <row r="588" spans="1:8">
       <c r="A588" s="77" t="s">
         <v>591</v>
       </c>
@@ -25609,7 +25609,7 @@
         <v>42779</v>
       </c>
     </row>
-    <row r="590" hidden="1" spans="1:8">
+    <row r="590" spans="1:8">
       <c r="A590" s="77" t="s">
         <v>591</v>
       </c>
@@ -25633,7 +25633,7 @@
         <v>42779</v>
       </c>
     </row>
-    <row r="591" hidden="1" spans="1:8">
+    <row r="591" spans="1:8">
       <c r="A591" s="77" t="s">
         <v>591</v>
       </c>
@@ -25657,7 +25657,7 @@
         <v>42781</v>
       </c>
     </row>
-    <row r="592" hidden="1" spans="1:8">
+    <row r="592" spans="1:8">
       <c r="A592" s="77" t="s">
         <v>591</v>
       </c>
@@ -25681,7 +25681,7 @@
         <v>42784</v>
       </c>
     </row>
-    <row r="593" hidden="1" spans="1:8">
+    <row r="593" spans="1:8">
       <c r="A593" s="77" t="s">
         <v>591</v>
       </c>
@@ -25705,7 +25705,7 @@
         <v>42837</v>
       </c>
     </row>
-    <row r="594" hidden="1" spans="1:8">
+    <row r="594" spans="1:8">
       <c r="A594" s="77" t="s">
         <v>591</v>
       </c>
@@ -25756,7 +25756,7 @@
         <v>42783</v>
       </c>
     </row>
-    <row r="596" hidden="1" spans="1:8">
+    <row r="596" spans="1:8">
       <c r="A596" s="77" t="s">
         <v>591</v>
       </c>
@@ -25780,7 +25780,7 @@
         <v>42816</v>
       </c>
     </row>
-    <row r="597" hidden="1" spans="1:8">
+    <row r="597" spans="1:8">
       <c r="A597" s="77" t="s">
         <v>591</v>
       </c>
@@ -25804,7 +25804,7 @@
         <v>42813</v>
       </c>
     </row>
-    <row r="598" hidden="1" spans="1:8">
+    <row r="598" spans="1:8">
       <c r="A598" s="77" t="s">
         <v>591</v>
       </c>
@@ -25828,7 +25828,7 @@
         <v>42789</v>
       </c>
     </row>
-    <row r="599" hidden="1" spans="1:8">
+    <row r="599" spans="1:8">
       <c r="A599" s="77" t="s">
         <v>591</v>
       </c>
@@ -25852,7 +25852,7 @@
         <v>42779</v>
       </c>
     </row>
-    <row r="600" hidden="1" spans="1:8">
+    <row r="600" spans="1:8">
       <c r="A600" s="77" t="s">
         <v>591</v>
       </c>
@@ -25876,7 +25876,7 @@
         <v>42841</v>
       </c>
     </row>
-    <row r="601" hidden="1" spans="1:8">
+    <row r="601" spans="1:8">
       <c r="A601" s="77" t="s">
         <v>591</v>
       </c>
@@ -25900,7 +25900,7 @@
         <v>42841</v>
       </c>
     </row>
-    <row r="602" hidden="1" spans="1:8">
+    <row r="602" spans="1:8">
       <c r="A602" s="77" t="s">
         <v>591</v>
       </c>
@@ -25924,7 +25924,7 @@
         <v>42850</v>
       </c>
     </row>
-    <row r="603" hidden="1" spans="1:8">
+    <row r="603" spans="1:8">
       <c r="A603" s="77" t="s">
         <v>591</v>
       </c>
@@ -25948,7 +25948,7 @@
         <v>42783</v>
       </c>
     </row>
-    <row r="604" hidden="1" spans="1:8">
+    <row r="604" spans="1:8">
       <c r="A604" s="77" t="s">
         <v>591</v>
       </c>
@@ -25972,7 +25972,7 @@
         <v>42894</v>
       </c>
     </row>
-    <row r="605" hidden="1" spans="1:8">
+    <row r="605" spans="1:8">
       <c r="A605" s="77" t="s">
         <v>591</v>
       </c>
@@ -25996,7 +25996,7 @@
         <v>42894</v>
       </c>
     </row>
-    <row r="606" hidden="1" spans="1:8">
+    <row r="606" spans="1:8">
       <c r="A606" s="83" t="s">
         <v>700</v>
       </c>
@@ -26048,7 +26048,7 @@
         <v>42389</v>
       </c>
     </row>
-    <row r="608" hidden="1" spans="1:8">
+    <row r="608" spans="1:8">
       <c r="A608" s="83" t="s">
         <v>700</v>
       </c>
@@ -26072,7 +26072,7 @@
         <v>42422</v>
       </c>
     </row>
-    <row r="609" hidden="1" spans="1:8">
+    <row r="609" spans="1:8">
       <c r="A609" s="83" t="s">
         <v>700</v>
       </c>
@@ -26096,7 +26096,7 @@
         <v>42429</v>
       </c>
     </row>
-    <row r="610" hidden="1" spans="1:8">
+    <row r="610" spans="1:8">
       <c r="A610" s="83" t="s">
         <v>700</v>
       </c>
@@ -26120,7 +26120,7 @@
         <v>42688</v>
       </c>
     </row>
-    <row r="611" hidden="1" spans="1:8">
+    <row r="611" spans="1:8">
       <c r="A611" s="83" t="s">
         <v>700</v>
       </c>
@@ -26144,7 +26144,7 @@
         <v>42730</v>
       </c>
     </row>
-    <row r="612" hidden="1" spans="1:8">
+    <row r="612" spans="1:8">
       <c r="A612" s="83" t="s">
         <v>700</v>
       </c>
@@ -26168,7 +26168,7 @@
         <v>42781</v>
       </c>
     </row>
-    <row r="613" hidden="1" spans="1:8">
+    <row r="613" spans="1:8">
       <c r="A613" s="83" t="s">
         <v>700</v>
       </c>
@@ -26192,7 +26192,7 @@
         <v>42836</v>
       </c>
     </row>
-    <row r="614" hidden="1" spans="1:8">
+    <row r="614" spans="1:8">
       <c r="A614" s="83" t="s">
         <v>700</v>
       </c>
@@ -26216,7 +26216,7 @@
         <v>42864</v>
       </c>
     </row>
-    <row r="615" hidden="1" spans="1:8">
+    <row r="615" spans="1:8">
       <c r="A615" s="83" t="s">
         <v>700</v>
       </c>
@@ -26267,7 +26267,7 @@
         <v>42552</v>
       </c>
     </row>
-    <row r="617" hidden="1" spans="1:8">
+    <row r="617" spans="1:8">
       <c r="A617" s="83" t="s">
         <v>700</v>
       </c>
@@ -26291,7 +26291,7 @@
         <v>42430</v>
       </c>
     </row>
-    <row r="618" hidden="1" spans="1:8">
+    <row r="618" spans="1:8">
       <c r="A618" s="83" t="s">
         <v>700</v>
       </c>
@@ -26315,7 +26315,7 @@
         <v>42592</v>
       </c>
     </row>
-    <row r="619" hidden="1" spans="1:8">
+    <row r="619" spans="1:8">
       <c r="A619" s="83" t="s">
         <v>700</v>
       </c>
@@ -26339,7 +26339,7 @@
         <v>42634</v>
       </c>
     </row>
-    <row r="620" hidden="1" spans="1:8">
+    <row r="620" spans="1:8">
       <c r="A620" s="83" t="s">
         <v>700</v>
       </c>
@@ -26363,7 +26363,7 @@
         <v>42643</v>
       </c>
     </row>
-    <row r="621" hidden="1" spans="1:8">
+    <row r="621" spans="1:8">
       <c r="A621" s="83" t="s">
         <v>700</v>
       </c>
@@ -26387,7 +26387,7 @@
         <v>42786</v>
       </c>
     </row>
-    <row r="622" hidden="1" spans="1:8">
+    <row r="622" spans="1:8">
       <c r="A622" s="83" t="s">
         <v>700</v>
       </c>
@@ -26411,7 +26411,7 @@
         <v>42813</v>
       </c>
     </row>
-    <row r="623" hidden="1" spans="1:8">
+    <row r="623" spans="1:8">
       <c r="A623" s="83" t="s">
         <v>700</v>
       </c>
@@ -26435,7 +26435,7 @@
         <v>42829</v>
       </c>
     </row>
-    <row r="624" hidden="1" spans="1:8">
+    <row r="624" spans="1:8">
       <c r="A624" s="83" t="s">
         <v>700</v>
       </c>
@@ -26459,7 +26459,7 @@
         <v>42809</v>
       </c>
     </row>
-    <row r="625" hidden="1" spans="1:8">
+    <row r="625" spans="1:8">
       <c r="A625" s="83" t="s">
         <v>700</v>
       </c>
@@ -26483,7 +26483,7 @@
         <v>42886</v>
       </c>
     </row>
-    <row r="626" hidden="1" spans="1:8">
+    <row r="626" spans="1:8">
       <c r="A626" s="83" t="s">
         <v>700</v>
       </c>
@@ -26507,7 +26507,7 @@
         <v>42641</v>
       </c>
     </row>
-    <row r="627" hidden="1" spans="1:8">
+    <row r="627" spans="1:8">
       <c r="A627" s="83" t="s">
         <v>700</v>
       </c>
@@ -26531,7 +26531,7 @@
         <v>42787</v>
       </c>
     </row>
-    <row r="628" hidden="1" spans="1:8">
+    <row r="628" spans="1:8">
       <c r="A628" s="83" t="s">
         <v>700</v>
       </c>
@@ -26555,7 +26555,7 @@
         <v>42815</v>
       </c>
     </row>
-    <row r="629" hidden="1" spans="1:8">
+    <row r="629" spans="1:8">
       <c r="A629" s="83" t="s">
         <v>700</v>
       </c>
@@ -26579,7 +26579,7 @@
         <v>42822</v>
       </c>
     </row>
-    <row r="630" hidden="1" spans="1:8">
+    <row r="630" spans="1:8">
       <c r="A630" s="83" t="s">
         <v>700</v>
       </c>
@@ -26603,7 +26603,7 @@
         <v>42279</v>
       </c>
     </row>
-    <row r="631" hidden="1" spans="1:8">
+    <row r="631" spans="1:8">
       <c r="A631" s="83" t="s">
         <v>700</v>
       </c>
@@ -26627,7 +26627,7 @@
         <v>42696</v>
       </c>
     </row>
-    <row r="632" hidden="1" spans="1:8">
+    <row r="632" spans="1:8">
       <c r="A632" s="83" t="s">
         <v>700</v>
       </c>
@@ -26651,7 +26651,7 @@
         <v>42836</v>
       </c>
     </row>
-    <row r="633" hidden="1" spans="1:8">
+    <row r="633" spans="1:8">
       <c r="A633" s="83" t="s">
         <v>700</v>
       </c>
@@ -26676,7 +26676,7 @@
         <v>42234</v>
       </c>
     </row>
-    <row r="634" hidden="1" spans="1:8">
+    <row r="634" spans="1:8">
       <c r="A634" s="83" t="s">
         <v>700</v>
       </c>
@@ -26725,7 +26725,7 @@
         <v>42481</v>
       </c>
     </row>
-    <row r="636" hidden="1" spans="1:8">
+    <row r="636" spans="1:8">
       <c r="A636" s="83" t="s">
         <v>700</v>
       </c>
@@ -26749,7 +26749,7 @@
         <v>42706</v>
       </c>
     </row>
-    <row r="637" hidden="1" spans="1:8">
+    <row r="637" spans="1:8">
       <c r="A637" s="83" t="s">
         <v>700</v>
       </c>
@@ -26773,7 +26773,7 @@
         <v>42653</v>
       </c>
     </row>
-    <row r="638" hidden="1" spans="1:8">
+    <row r="638" spans="1:8">
       <c r="A638" s="83" t="s">
         <v>700</v>
       </c>
@@ -26797,7 +26797,7 @@
         <v>42713</v>
       </c>
     </row>
-    <row r="639" hidden="1" spans="1:8">
+    <row r="639" spans="1:8">
       <c r="A639" s="83" t="s">
         <v>700</v>
       </c>
@@ -26821,7 +26821,7 @@
         <v>42837</v>
       </c>
     </row>
-    <row r="640" hidden="1" spans="1:8">
+    <row r="640" spans="1:8">
       <c r="A640" s="83" t="s">
         <v>700</v>
       </c>
@@ -26845,7 +26845,7 @@
         <v>42801</v>
       </c>
     </row>
-    <row r="641" hidden="1" spans="1:8">
+    <row r="641" spans="1:8">
       <c r="A641" s="83" t="s">
         <v>700</v>
       </c>
@@ -26869,7 +26869,7 @@
         <v>42878</v>
       </c>
     </row>
-    <row r="642" hidden="1" spans="1:8">
+    <row r="642" spans="1:8">
       <c r="A642" s="83" t="s">
         <v>700</v>
       </c>
@@ -26920,7 +26920,7 @@
         <v>42439</v>
       </c>
     </row>
-    <row r="644" hidden="1" spans="1:8">
+    <row r="644" spans="1:8">
       <c r="A644" s="83" t="s">
         <v>700</v>
       </c>
@@ -26944,7 +26944,7 @@
         <v>42234</v>
       </c>
     </row>
-    <row r="645" hidden="1" spans="1:8">
+    <row r="645" spans="1:8">
       <c r="A645" s="83" t="s">
         <v>700</v>
       </c>
@@ -26968,7 +26968,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="646" hidden="1" spans="1:8">
+    <row r="646" spans="1:8">
       <c r="A646" s="83" t="s">
         <v>700</v>
       </c>
@@ -26992,7 +26992,7 @@
         <v>42779</v>
       </c>
     </row>
-    <row r="647" hidden="1" spans="1:8">
+    <row r="647" spans="1:8">
       <c r="A647" s="83" t="s">
         <v>700</v>
       </c>
@@ -27016,7 +27016,7 @@
         <v>42855</v>
       </c>
     </row>
-    <row r="648" hidden="1" spans="1:8">
+    <row r="648" spans="1:8">
       <c r="A648" s="83" t="s">
         <v>700</v>
       </c>
@@ -27040,7 +27040,7 @@
         <v>42859</v>
       </c>
     </row>
-    <row r="649" hidden="1" spans="1:8">
+    <row r="649" spans="1:8">
       <c r="A649" s="83" t="s">
         <v>700</v>
       </c>
@@ -27064,7 +27064,7 @@
         <v>42858</v>
       </c>
     </row>
-    <row r="650" hidden="1" spans="1:8">
+    <row r="650" spans="1:8">
       <c r="A650" s="83" t="s">
         <v>700</v>
       </c>
@@ -27088,7 +27088,7 @@
         <v>42423</v>
       </c>
     </row>
-    <row r="651" hidden="1" spans="1:8">
+    <row r="651" spans="1:8">
       <c r="A651" s="83" t="s">
         <v>700</v>
       </c>
@@ -27112,7 +27112,7 @@
         <v>42771</v>
       </c>
     </row>
-    <row r="652" hidden="1" spans="1:8">
+    <row r="652" spans="1:8">
       <c r="A652" s="83" t="s">
         <v>700</v>
       </c>
@@ -27136,7 +27136,7 @@
         <v>42840</v>
       </c>
     </row>
-    <row r="653" hidden="1" spans="1:8">
+    <row r="653" spans="1:8">
       <c r="A653" s="83" t="s">
         <v>700</v>
       </c>
@@ -27160,7 +27160,7 @@
         <v>42857</v>
       </c>
     </row>
-    <row r="654" hidden="1" spans="1:8">
+    <row r="654" spans="1:8">
       <c r="A654" s="83" t="s">
         <v>700</v>
       </c>
@@ -27184,7 +27184,7 @@
         <v>42883</v>
       </c>
     </row>
-    <row r="655" hidden="1" spans="1:8">
+    <row r="655" spans="1:8">
       <c r="A655" s="83" t="s">
         <v>700</v>
       </c>
@@ -27209,7 +27209,7 @@
         <v>42243</v>
       </c>
     </row>
-    <row r="656" hidden="1" spans="1:8">
+    <row r="656" spans="1:8">
       <c r="A656" s="83" t="s">
         <v>700</v>
       </c>
@@ -27233,7 +27233,7 @@
         <v>42422</v>
       </c>
     </row>
-    <row r="657" hidden="1" spans="1:8">
+    <row r="657" spans="1:8">
       <c r="A657" s="83" t="s">
         <v>700</v>
       </c>
@@ -27257,7 +27257,7 @@
         <v>42804</v>
       </c>
     </row>
-    <row r="658" hidden="1" spans="1:8">
+    <row r="658" spans="1:8">
       <c r="A658" s="83" t="s">
         <v>700</v>
       </c>
@@ -27281,7 +27281,7 @@
         <v>42832</v>
       </c>
     </row>
-    <row r="659" hidden="1" spans="1:8">
+    <row r="659" spans="1:8">
       <c r="A659" s="83" t="s">
         <v>700</v>
       </c>
@@ -27305,7 +27305,7 @@
         <v>42779</v>
       </c>
     </row>
-    <row r="660" hidden="1" spans="1:8">
+    <row r="660" spans="1:8">
       <c r="A660" s="83" t="s">
         <v>700</v>
       </c>
@@ -27329,7 +27329,7 @@
         <v>42564</v>
       </c>
     </row>
-    <row r="661" hidden="1" spans="1:8">
+    <row r="661" spans="1:8">
       <c r="A661" s="83" t="s">
         <v>700</v>
       </c>
@@ -27353,7 +27353,7 @@
         <v>42590</v>
       </c>
     </row>
-    <row r="662" hidden="1" spans="1:8">
+    <row r="662" spans="1:8">
       <c r="A662" s="83" t="s">
         <v>700</v>
       </c>
@@ -27377,7 +27377,7 @@
         <v>42621</v>
       </c>
     </row>
-    <row r="663" hidden="1" spans="1:8">
+    <row r="663" spans="1:8">
       <c r="A663" s="83" t="s">
         <v>700</v>
       </c>
@@ -27401,7 +27401,7 @@
         <v>42743</v>
       </c>
     </row>
-    <row r="664" hidden="1" spans="1:8">
+    <row r="664" spans="1:8">
       <c r="A664" s="83" t="s">
         <v>700</v>
       </c>
@@ -27425,7 +27425,7 @@
         <v>42858</v>
       </c>
     </row>
-    <row r="665" hidden="1" spans="1:8">
+    <row r="665" spans="1:8">
       <c r="A665" s="83" t="s">
         <v>700</v>
       </c>
@@ -27449,7 +27449,7 @@
         <v>42870</v>
       </c>
     </row>
-    <row r="666" hidden="1" spans="1:8">
+    <row r="666" spans="1:8">
       <c r="A666" s="83" t="s">
         <v>700</v>
       </c>
@@ -27473,7 +27473,7 @@
         <v>42623</v>
       </c>
     </row>
-    <row r="667" hidden="1" spans="1:8">
+    <row r="667" spans="1:8">
       <c r="A667" s="83" t="s">
         <v>700</v>
       </c>
@@ -27497,7 +27497,7 @@
         <v>42705</v>
       </c>
     </row>
-    <row r="668" hidden="1" spans="1:8">
+    <row r="668" spans="1:8">
       <c r="A668" s="83" t="s">
         <v>700</v>
       </c>
@@ -27521,7 +27521,7 @@
         <v>42794</v>
       </c>
     </row>
-    <row r="669" hidden="1" spans="1:8">
+    <row r="669" spans="1:8">
       <c r="A669" s="83" t="s">
         <v>700</v>
       </c>
@@ -27545,7 +27545,7 @@
         <v>42807</v>
       </c>
     </row>
-    <row r="670" hidden="1" spans="1:8">
+    <row r="670" spans="1:8">
       <c r="A670" s="83" t="s">
         <v>700</v>
       </c>
@@ -27569,7 +27569,7 @@
         <v>42773</v>
       </c>
     </row>
-    <row r="671" hidden="1" spans="1:8">
+    <row r="671" spans="1:8">
       <c r="A671" s="83" t="s">
         <v>700</v>
       </c>
@@ -27594,7 +27594,7 @@
         <v>42602</v>
       </c>
     </row>
-    <row r="672" hidden="1" spans="1:8">
+    <row r="672" spans="1:8">
       <c r="A672" s="83" t="s">
         <v>700</v>
       </c>
@@ -27643,7 +27643,7 @@
         <v>42601</v>
       </c>
     </row>
-    <row r="674" hidden="1" spans="1:8">
+    <row r="674" spans="1:8">
       <c r="A674" s="83" t="s">
         <v>700</v>
       </c>
@@ -27667,7 +27667,7 @@
         <v>42639</v>
       </c>
     </row>
-    <row r="675" hidden="1" spans="1:8">
+    <row r="675" spans="1:8">
       <c r="A675" s="83" t="s">
         <v>700</v>
       </c>
@@ -27691,7 +27691,7 @@
         <v>42655</v>
       </c>
     </row>
-    <row r="676" hidden="1" spans="1:8">
+    <row r="676" spans="1:8">
       <c r="A676" s="83" t="s">
         <v>700</v>
       </c>
@@ -27715,7 +27715,7 @@
         <v>42788</v>
       </c>
     </row>
-    <row r="677" hidden="1" spans="1:8">
+    <row r="677" spans="1:8">
       <c r="A677" s="83" t="s">
         <v>700</v>
       </c>
@@ -27766,7 +27766,7 @@
         <v>42623</v>
       </c>
     </row>
-    <row r="679" hidden="1" spans="1:8">
+    <row r="679" spans="1:8">
       <c r="A679" s="83" t="s">
         <v>700</v>
       </c>
@@ -27790,7 +27790,7 @@
         <v>42655</v>
       </c>
     </row>
-    <row r="680" hidden="1" spans="1:8">
+    <row r="680" spans="1:8">
       <c r="A680" s="83" t="s">
         <v>700</v>
       </c>
@@ -27814,7 +27814,7 @@
         <v>42671</v>
       </c>
     </row>
-    <row r="681" hidden="1" spans="1:8">
+    <row r="681" spans="1:8">
       <c r="A681" s="83" t="s">
         <v>700</v>
       </c>
@@ -27838,7 +27838,7 @@
         <v>42643</v>
       </c>
     </row>
-    <row r="682" hidden="1" spans="1:8">
+    <row r="682" spans="1:8">
       <c r="A682" s="83" t="s">
         <v>700</v>
       </c>
@@ -27862,7 +27862,7 @@
         <v>42872</v>
       </c>
     </row>
-    <row r="683" hidden="1" spans="1:8">
+    <row r="683" spans="1:8">
       <c r="A683" s="83" t="s">
         <v>700</v>
       </c>
@@ -27886,7 +27886,7 @@
         <v>42817</v>
       </c>
     </row>
-    <row r="684" hidden="1" spans="1:8">
+    <row r="684" spans="1:8">
       <c r="A684" s="83" t="s">
         <v>700</v>
       </c>
@@ -27910,7 +27910,7 @@
         <v>42662</v>
       </c>
     </row>
-    <row r="685" hidden="1" spans="1:8">
+    <row r="685" spans="1:8">
       <c r="A685" s="86" t="s">
         <v>784</v>
       </c>
@@ -27962,7 +27962,7 @@
         <v>42873</v>
       </c>
     </row>
-    <row r="687" hidden="1" spans="1:8">
+    <row r="687" spans="1:8">
       <c r="A687" s="86" t="s">
         <v>784</v>
       </c>
@@ -27986,7 +27986,7 @@
         <v>42768</v>
       </c>
     </row>
-    <row r="688" hidden="1" spans="1:8">
+    <row r="688" spans="1:8">
       <c r="A688" s="86" t="s">
         <v>784</v>
       </c>
@@ -28010,7 +28010,7 @@
         <v>42768</v>
       </c>
     </row>
-    <row r="689" hidden="1" spans="1:8">
+    <row r="689" spans="1:8">
       <c r="A689" s="86" t="s">
         <v>784</v>
       </c>
@@ -28034,7 +28034,7 @@
         <v>42424</v>
       </c>
     </row>
-    <row r="690" hidden="1" spans="1:8">
+    <row r="690" spans="1:8">
       <c r="A690" s="86" t="s">
         <v>784</v>
       </c>
@@ -28058,7 +28058,7 @@
         <v>42867</v>
       </c>
     </row>
-    <row r="691" hidden="1" spans="1:8">
+    <row r="691" spans="1:8">
       <c r="A691" s="86" t="s">
         <v>784</v>
       </c>
@@ -28083,7 +28083,7 @@
         <v>42776</v>
       </c>
     </row>
-    <row r="692" hidden="1" spans="1:8">
+    <row r="692" spans="1:8">
       <c r="A692" s="86" t="s">
         <v>784</v>
       </c>
@@ -28132,7 +28132,7 @@
         <v>42783</v>
       </c>
     </row>
-    <row r="694" hidden="1" spans="1:8">
+    <row r="694" spans="1:8">
       <c r="A694" s="86" t="s">
         <v>784</v>
       </c>
@@ -28156,7 +28156,7 @@
         <v>42783</v>
       </c>
     </row>
-    <row r="695" hidden="1" spans="1:8">
+    <row r="695" spans="1:8">
       <c r="A695" s="86" t="s">
         <v>784</v>
       </c>
@@ -28180,7 +28180,7 @@
         <v>42783</v>
       </c>
     </row>
-    <row r="696" hidden="1" spans="1:8">
+    <row r="696" spans="1:8">
       <c r="A696" s="86" t="s">
         <v>784</v>
       </c>
@@ -28204,7 +28204,7 @@
         <v>42783</v>
       </c>
     </row>
-    <row r="697" hidden="1" spans="1:8">
+    <row r="697" spans="1:8">
       <c r="A697" s="86" t="s">
         <v>784</v>
       </c>
@@ -28228,7 +28228,7 @@
         <v>42783</v>
       </c>
     </row>
-    <row r="698" hidden="1" spans="1:8">
+    <row r="698" spans="1:8">
       <c r="A698" s="86" t="s">
         <v>784</v>
       </c>
@@ -28252,7 +28252,7 @@
         <v>42810</v>
       </c>
     </row>
-    <row r="699" hidden="1" spans="1:8">
+    <row r="699" spans="1:8">
       <c r="A699" s="86" t="s">
         <v>784</v>
       </c>
@@ -28276,7 +28276,7 @@
         <v>42854</v>
       </c>
     </row>
-    <row r="700" hidden="1" spans="1:8">
+    <row r="700" spans="1:8">
       <c r="A700" s="86" t="s">
         <v>784</v>
       </c>
@@ -28300,7 +28300,7 @@
         <v>42798</v>
       </c>
     </row>
-    <row r="701" hidden="1" spans="1:8">
+    <row r="701" spans="1:8">
       <c r="A701" s="86" t="s">
         <v>784</v>
       </c>
@@ -28324,7 +28324,7 @@
         <v>42782</v>
       </c>
     </row>
-    <row r="702" hidden="1" spans="1:8">
+    <row r="702" spans="1:8">
       <c r="A702" s="86" t="s">
         <v>784</v>
       </c>
@@ -28348,7 +28348,7 @@
         <v>42846</v>
       </c>
     </row>
-    <row r="703" hidden="1" spans="1:8">
+    <row r="703" spans="1:8">
       <c r="A703" s="86" t="s">
         <v>784</v>
       </c>
@@ -28372,7 +28372,7 @@
         <v>42776</v>
       </c>
     </row>
-    <row r="704" hidden="1" spans="1:8">
+    <row r="704" spans="1:8">
       <c r="A704" s="86" t="s">
         <v>784</v>
       </c>
@@ -28396,7 +28396,7 @@
         <v>42854</v>
       </c>
     </row>
-    <row r="705" hidden="1" spans="1:8">
+    <row r="705" spans="1:8">
       <c r="A705" s="86" t="s">
         <v>784</v>
       </c>
@@ -28420,7 +28420,7 @@
         <v>42864</v>
       </c>
     </row>
-    <row r="706" hidden="1" spans="1:8">
+    <row r="706" spans="1:8">
       <c r="A706" s="86" t="s">
         <v>784</v>
       </c>
@@ -28444,7 +28444,7 @@
         <v>42864</v>
       </c>
     </row>
-    <row r="707" hidden="1" spans="1:8">
+    <row r="707" spans="1:8">
       <c r="A707" s="86" t="s">
         <v>784</v>
       </c>
@@ -28468,7 +28468,7 @@
         <v>42864</v>
       </c>
     </row>
-    <row r="708" hidden="1" spans="1:8">
+    <row r="708" spans="1:8">
       <c r="A708" s="86" t="s">
         <v>784</v>
       </c>
@@ -28492,7 +28492,7 @@
         <v>42646</v>
       </c>
     </row>
-    <row r="709" hidden="1" spans="1:8">
+    <row r="709" spans="1:8">
       <c r="A709" s="86" t="s">
         <v>784</v>
       </c>
@@ -28516,7 +28516,7 @@
         <v>42844</v>
       </c>
     </row>
-    <row r="710" hidden="1" spans="1:8">
+    <row r="710" spans="1:8">
       <c r="A710" s="86" t="s">
         <v>784</v>
       </c>
@@ -28540,7 +28540,7 @@
         <v>42592</v>
       </c>
     </row>
-    <row r="711" hidden="1" spans="1:8">
+    <row r="711" spans="1:8">
       <c r="A711" s="86" t="s">
         <v>784</v>
       </c>
@@ -28564,7 +28564,7 @@
         <v>42785</v>
       </c>
     </row>
-    <row r="712" hidden="1" spans="1:8">
+    <row r="712" spans="1:8">
       <c r="A712" s="86" t="s">
         <v>784</v>
       </c>
@@ -28588,7 +28588,7 @@
         <v>42799</v>
       </c>
     </row>
-    <row r="713" hidden="1" spans="1:8">
+    <row r="713" spans="1:8">
       <c r="A713" s="86" t="s">
         <v>784</v>
       </c>
@@ -28612,7 +28612,7 @@
         <v>42860</v>
       </c>
     </row>
-    <row r="714" hidden="1" spans="1:8">
+    <row r="714" spans="1:8">
       <c r="A714" s="86" t="s">
         <v>784</v>
       </c>
@@ -28637,7 +28637,7 @@
         <v>42771</v>
       </c>
     </row>
-    <row r="715" hidden="1" spans="1:8">
+    <row r="715" spans="1:8">
       <c r="A715" s="86" t="s">
         <v>784</v>
       </c>
@@ -28659,7 +28659,7 @@
         <v>42788</v>
       </c>
     </row>
-    <row r="716" hidden="1" spans="1:8">
+    <row r="716" spans="1:8">
       <c r="A716" s="86" t="s">
         <v>784</v>
       </c>
@@ -28683,7 +28683,7 @@
         <v>42771</v>
       </c>
     </row>
-    <row r="717" hidden="1" spans="1:8">
+    <row r="717" spans="1:8">
       <c r="A717" s="86" t="s">
         <v>784</v>
       </c>
@@ -28707,7 +28707,7 @@
         <v>42772</v>
       </c>
     </row>
-    <row r="718" hidden="1" spans="1:8">
+    <row r="718" spans="1:8">
       <c r="A718" s="86" t="s">
         <v>784</v>
       </c>
@@ -28731,7 +28731,7 @@
         <v>42816</v>
       </c>
     </row>
-    <row r="719" hidden="1" spans="1:8">
+    <row r="719" spans="1:8">
       <c r="A719" s="86" t="s">
         <v>784</v>
       </c>
@@ -28755,7 +28755,7 @@
         <v>42774</v>
       </c>
     </row>
-    <row r="720" hidden="1" spans="1:8">
+    <row r="720" spans="1:8">
       <c r="A720" s="86" t="s">
         <v>784</v>
       </c>
@@ -28779,7 +28779,7 @@
         <v>42816</v>
       </c>
     </row>
-    <row r="721" hidden="1" spans="1:8">
+    <row r="721" spans="1:8">
       <c r="A721" s="86" t="s">
         <v>784</v>
       </c>
@@ -28804,7 +28804,7 @@
         <v>42697</v>
       </c>
     </row>
-    <row r="722" hidden="1" spans="1:8">
+    <row r="722" spans="1:8">
       <c r="A722" s="86" t="s">
         <v>784</v>
       </c>
@@ -28826,7 +28826,7 @@
         <v>42691</v>
       </c>
     </row>
-    <row r="723" hidden="1" spans="1:8">
+    <row r="723" spans="1:8">
       <c r="A723" s="86" t="s">
         <v>784</v>
       </c>
@@ -28850,7 +28850,7 @@
         <v>42797</v>
       </c>
     </row>
-    <row r="724" hidden="1" spans="1:8">
+    <row r="724" spans="1:8">
       <c r="A724" s="86" t="s">
         <v>784</v>
       </c>
@@ -28874,7 +28874,7 @@
         <v>42697</v>
       </c>
     </row>
-    <row r="725" hidden="1" spans="1:8">
+    <row r="725" spans="1:8">
       <c r="A725" s="86" t="s">
         <v>784</v>
       </c>
@@ -28898,7 +28898,7 @@
         <v>42860</v>
       </c>
     </row>
-    <row r="726" hidden="1" spans="1:8">
+    <row r="726" spans="1:8">
       <c r="A726" s="86" t="s">
         <v>784</v>
       </c>
@@ -28922,7 +28922,7 @@
         <v>42704</v>
       </c>
     </row>
-    <row r="727" hidden="1" spans="1:8">
+    <row r="727" spans="1:8">
       <c r="A727" s="86" t="s">
         <v>784</v>
       </c>
@@ -28946,7 +28946,7 @@
         <v>42704</v>
       </c>
     </row>
-    <row r="728" hidden="1" spans="1:8">
+    <row r="728" spans="1:8">
       <c r="A728" s="86" t="s">
         <v>784</v>
       </c>
@@ -28970,7 +28970,7 @@
         <v>42705</v>
       </c>
     </row>
-    <row r="729" hidden="1" spans="1:8">
+    <row r="729" spans="1:8">
       <c r="A729" s="86" t="s">
         <v>784</v>
       </c>
@@ -28994,7 +28994,7 @@
         <v>42795</v>
       </c>
     </row>
-    <row r="730" hidden="1" spans="1:8">
+    <row r="730" spans="1:8">
       <c r="A730" s="86" t="s">
         <v>784</v>
       </c>
@@ -29018,7 +29018,7 @@
         <v>42810</v>
       </c>
     </row>
-    <row r="731" hidden="1" spans="1:8">
+    <row r="731" spans="1:8">
       <c r="A731" s="86" t="s">
         <v>784</v>
       </c>
@@ -29042,7 +29042,7 @@
         <v>42851</v>
       </c>
     </row>
-    <row r="732" hidden="1" spans="1:8">
+    <row r="732" spans="1:8">
       <c r="A732" s="86" t="s">
         <v>784</v>
       </c>
@@ -29066,7 +29066,7 @@
         <v>42877</v>
       </c>
     </row>
-    <row r="733" hidden="1" spans="1:8">
+    <row r="733" spans="1:8">
       <c r="A733" s="86" t="s">
         <v>784</v>
       </c>
@@ -29090,7 +29090,7 @@
         <v>42888</v>
       </c>
     </row>
-    <row r="734" hidden="1" spans="1:8">
+    <row r="734" spans="1:8">
       <c r="A734" s="86" t="s">
         <v>784</v>
       </c>
@@ -29141,7 +29141,7 @@
         <v>42803</v>
       </c>
     </row>
-    <row r="736" hidden="1" spans="1:8">
+    <row r="736" spans="1:8">
       <c r="A736" s="86" t="s">
         <v>784</v>
       </c>
@@ -29165,7 +29165,7 @@
         <v>42803</v>
       </c>
     </row>
-    <row r="737" hidden="1" spans="1:8">
+    <row r="737" spans="1:8">
       <c r="A737" s="86" t="s">
         <v>784</v>
       </c>
@@ -29189,7 +29189,7 @@
         <v>42803</v>
       </c>
     </row>
-    <row r="738" hidden="1" spans="1:8">
+    <row r="738" spans="1:8">
       <c r="A738" s="86" t="s">
         <v>784</v>
       </c>
@@ -29213,7 +29213,7 @@
         <v>42803</v>
       </c>
     </row>
-    <row r="739" hidden="1" spans="1:8">
+    <row r="739" spans="1:8">
       <c r="A739" s="86" t="s">
         <v>784</v>
       </c>
@@ -29237,7 +29237,7 @@
         <v>42798</v>
       </c>
     </row>
-    <row r="740" hidden="1" spans="1:8">
+    <row r="740" spans="1:8">
       <c r="A740" s="86" t="s">
         <v>784</v>
       </c>
@@ -29261,7 +29261,7 @@
         <v>42697</v>
       </c>
     </row>
-    <row r="741" hidden="1" spans="1:8">
+    <row r="741" spans="1:8">
       <c r="A741" s="86" t="s">
         <v>784</v>
       </c>
@@ -29285,7 +29285,7 @@
         <v>42815</v>
       </c>
     </row>
-    <row r="742" hidden="1" spans="1:8">
+    <row r="742" spans="1:8">
       <c r="A742" s="86" t="s">
         <v>784</v>
       </c>
@@ -29332,7 +29332,7 @@
         <v>42430</v>
       </c>
     </row>
-    <row r="744" hidden="1" spans="1:8">
+    <row r="744" spans="1:8">
       <c r="A744" s="89"/>
       <c r="B744" s="12">
         <v>743</v>
@@ -29354,7 +29354,7 @@
         <v>42836</v>
       </c>
     </row>
-    <row r="745" hidden="1" spans="1:8">
+    <row r="745" spans="1:8">
       <c r="A745" s="89"/>
       <c r="B745" s="12">
         <v>744</v>
@@ -29376,7 +29376,7 @@
         <v>42840</v>
       </c>
     </row>
-    <row r="746" hidden="1" spans="1:8">
+    <row r="746" spans="1:8">
       <c r="A746" s="89"/>
       <c r="B746" s="12">
         <v>745</v>
@@ -29398,7 +29398,7 @@
         <v>42843</v>
       </c>
     </row>
-    <row r="747" hidden="1" spans="1:8">
+    <row r="747" spans="1:8">
       <c r="A747" s="89"/>
       <c r="B747" s="12">
         <v>746</v>
@@ -29420,7 +29420,7 @@
         <v>42848</v>
       </c>
     </row>
-    <row r="748" hidden="1" spans="1:8">
+    <row r="748" spans="1:8">
       <c r="A748" s="38"/>
       <c r="B748" s="12">
         <v>747</v>
@@ -29442,7 +29442,7 @@
         <v>42705</v>
       </c>
     </row>
-    <row r="749" hidden="1" spans="1:8">
+    <row r="749" spans="1:8">
       <c r="A749" s="38"/>
       <c r="B749" s="12">
         <v>748</v>
@@ -29464,7 +29464,7 @@
         <v>42699</v>
       </c>
     </row>
-    <row r="750" hidden="1" spans="1:8">
+    <row r="750" spans="1:8">
       <c r="A750" s="38"/>
       <c r="B750" s="12">
         <v>749</v>
@@ -29486,7 +29486,7 @@
         <v>42740</v>
       </c>
     </row>
-    <row r="751" hidden="1" spans="1:8">
+    <row r="751" spans="1:8">
       <c r="A751" s="38"/>
       <c r="B751" s="12">
         <v>750</v>
@@ -29508,7 +29508,7 @@
         <v>42701</v>
       </c>
     </row>
-    <row r="752" hidden="1" spans="1:8">
+    <row r="752" spans="1:8">
       <c r="A752" s="38"/>
       <c r="B752" s="12">
         <v>751</v>
@@ -29530,7 +29530,7 @@
         <v>42716</v>
       </c>
     </row>
-    <row r="753" hidden="1" spans="1:8">
+    <row r="753" spans="1:8">
       <c r="A753" s="38"/>
       <c r="B753" s="12">
         <v>752</v>
@@ -29552,7 +29552,7 @@
         <v>42243</v>
       </c>
     </row>
-    <row r="754" hidden="1" spans="1:8">
+    <row r="754" spans="1:8">
       <c r="A754" s="92"/>
       <c r="B754" s="12">
         <v>753</v>
@@ -29749,13 +29749,7 @@
       <c r="G786" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H754">
-    <filterColumn colId="4">
-      <customFilters>
-        <customFilter operator="equal" val="店面经理"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H754"/>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 C1 D1:E1 F1 G1 H1 E2 F2 G2 G3 F4 G5 G8 F11 F12 G12 D13:E13 G13 G15 G16 E20 F20 G20 E21 F21 G21 E22 F22 G22 E23 F23 G23 F24 G24 D26 E26 F26 G26 E29 F30 G30 F31 G31 G34 D35:E35 F35 G35 E38 D39:E39 F39 G39 D40:E40 G40 D41 E41 F41 G41 D42:E42 F42 D43 D44 F44 G44 D46 D49 E49 F49 G49 D50 F50 G50 E51 F51 G51 C52 E53 E54 E55 E56 F61 G61 G67 E68 G68 F69 G69 C71 D71 F71 G71 D72:E72 F72 G72 E73 G73 E74 G74 E75 D76 E76 D77 E77 F77 D78 E78 F78 C79 D79 G79 D80 G80 D81 F86 G86 D87:E87 D88:E88 D89 D91 F91 F92 G92 F93 E96 F96 C97 F97 G97 E98 G98 E99 G99 E100 G100 D105:E105 G105 D106:E106 F106 G106 D107:E107 F107 G107 G108 E110 E111 D112:E112 F112 D113:E113 F113 F114 C118 E118 G118 G119 G120 G121 G124 G128 E129 E130 F130 G130 E132 F132 G132 E135 G140 C141 E141 F141 G141 E142 G142 E145 G145 F150 E153 C156 E156 F156 G156 E158 F158 G158 E159 F159 G159 F162 G162 G163 G164 E165 F165 C167 G167 G168 E169 G169 E171 F171 C172 F172 G172 G173 F177 F178 C180 G188 G189 G191 F192 C195 E195 F195 G195 C196 C197 G197 E198 E199 E206 C209 E209 F209 E210 F210 G220 F221 G221 F222 G223 E224 G224 C232 G241 C245 G246 C251 E251 C252 C259 C264 C265 C266 G266 E267 G267 G268 G269 C276 E283 E291 E292 C293 E295 E296 E297 G297 E298 E299 F301 E303 F308 C309 E309 F309 G309 C310 E310 F310 G310 C311 E311 C312 F312 E314 G314 E318 E319 G319 C323 G323 E325 E327 C332 C333 F333 G333 C334 E334 G335 F347 E353 F353 G353 C354 G354 G355 G356 F359 F361 G361 F362 G362 C364 E364 G364 C369 E369 F369 G369 E371 F371 G371 E372 G372 E373 G373 F374 E380 C386 C387 C388 E388 G392 C394 E399 C401 E402 E404 E405 E406 C410 C419 C427 C428 C434 E435 F436 F439 G439 E440 F440 E441 F441 E442 F442 F443 G443 C446 C447 F447 G447 C448 C449 C450 E450 F450 G450 G455 C456 G456 G457 G459 G460 F462 G462 C464 D464 E464 F464 G464 C465 D465 F465 G465 G466 G467 D471 F471 G471 G472 G473 G474 C476 D476 C477 D477 E477 C478 G480 C485 D485 D486 G486 D491 C492 F492 C493 F493 F496 F499 F500 C502 F502 G502 D504 G504 G507 F508 F509 D510 F510 G510 E511 F511 E512 F512 G516 G517 D518 E518 F518 C521 D521 E521 G521 D526 G526 C530 F530 G530 F531 G531 E532 F532 G532 E533 E534 D535 F535 G539 D540 E540 D541 E541 G541 D542 G542 D543 E543 D546 D547 E547 D549 F549 E551 E552 C556 E556 F556 G556 F558 G558 G559 G562 F563 G566 F567 C572 F572 G572 C579 E579 F579 G579 F582 C583 E583 F583 F584 F587 C589 E589 F589 G589 G590 G591 F592 C595 E595 F595 G595 F596 F597 F603 C606 D606 E606 F606 G606 C607 E607 E610 E611 D615 F615 C616 E616 E617 E618 G618 E619 E620 D621 E621 G621 D622 D624 D630 G630 D631 E631 C633 E633 F633 G633 C634 C635 F635 G635 F636 G636 F637 G637 F638 C643 E643 G643 F644 G644 E645 F645 F646 G646 G651 C655 D655:E655 G655 G656 D662:E662 E663 G663 D666 E666 G666 D667:E667 F668 F669 F670 C671 E671 F671 G671 C672 C673 D673 E673 G673 D674 E674 G674 D675 E675 G675 F677 C678 D678 E678 F678 G678 D679 E679 F679 D680 E680 F680 G680 D681 F681 E683 D684 E684 C685 E685 F685 C686 F686 G686 E687 E688 G689 C691 E691 C692 C693 D700 D701 D708 E708 G710 G711 C714 E714 F714 F715 E716 F716 E717 E719 C721 D723 E723 D724 E724 D725 D730 D734 E734 F734 C735 E740 D741 E741 D742 E742 C743 D743 G743 D748 D749:E749 D750 E750 D751 E751 D752:E752 D753:E753 G753 B2:B754 C2:C51 C53:C70 C72:C78 C80:C96 C98:C117 C119:C140 C142:C155 C157:C166 C168:C171 C173:C179 C181:C194 C198:C208 C210:C231 C233:C244 C246:C250 C253:C258 C260:C263 C267:C275 C277:C292 C294:C308 C313:C322 C324:C331 C335:C353 C355:C363 C365:C368 C370:C385 C389:C393 C395:C400 C402:C409 C411:C418 C420:C426 C429:C433 C435:C445 C451:C455 C457:C463 C466:C475 C479:C484 C486:C491 C494:C501 C503:C520 C522:C529 C531:C555 C557:C571 C573:C578 C580:C582 C584:C588 C590:C594 C596:C605 C608:C615 C617:C632 C636:C642 C644:C654 C656:C670 C674:C677 C679:C684 C687:C690 C694:C713 C715:C720 C722:C734 C736:C742 C744:C754 D3:D4 D20:D25 D27:D28 D74:D75 D446:D447 D450:D451 D466:D467 D472:D474 D478:D479 D480:D481 D502:D503 D505:D507 D511:D512 D516:D517 D530:D531 D532:D534 D538:D539 D550:D553 D607:D612 D616:D620 D626:D627 D628:D629 D671:D672 D691:D692 D693:D699 D702:D703 D704:D707 D721:D722 D726:D729 D731:D732 D735:D738 D739:D740 E24:E25 E27:E28 E30:E31 E60:E61 E284:E285 E328:E329 E355:E356 E408:E409 E505:E506 E538:E539 E608:E609 E681:E682 E689:E690 E703:E704 E727:E728 F17:F18 F27:F28 F62:F63 F67:F68 F73:F76 F79:F83 F87:F89 F98:F99 F100:F103 F104:F105 F108:F109 F118:F119 F120:F121 F122:F124 F128:F129 F142:F143 F163:F164 F167:F170 F173:F176 F188:F191 F197:F199 F200:F201 F202:F203 F219:F220 F266:F267 F268:F269 F302:F304 F305:F307 F313:F315 F345:F346 F354:F358 F372:F373 F428:F431 F434:F435 F456:F461 F466:F467 F472:F474 F494:F495 F504:F507 F516:F517 F519:F520 F521:F526 F533:F534 F550:F553 F580:F581 F585:F586 F590:F591 F598:F599 F607:F612 F660:F662 F666:F667 F673:F676 F687:F688 G6:G7 G10:G11 G17:G18 G27:G28 G112:G113 G434:G435 G607:G609 G616:G617 G660:G661 D11:E12 D17:E18 D660:E661"/>
   </dataValidations>
